--- a/Hours Log.xlsx
+++ b/Hours Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_and_Study\Study\2017_uwa\2017_S1\ELEC5551\Scheduling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barlc_000\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -113,6 +113,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -231,17 +237,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -352,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -362,71 +357,107 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,20 +791,20 @@
   <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="22"/>
+    <col min="1" max="1" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="6"/>
@@ -783,24 +814,24 @@
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="1"/>
@@ -810,20 +841,20 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -831,1205 +862,1257 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="22">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="42">
         <v>1.5</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="43">
         <v>1.5</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="43">
         <v>1.5</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="43">
         <v>1.5</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="43">
         <v>1.5</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="44">
         <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
+      <c r="C6" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="42">
         <v>2</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="43">
         <v>2</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="43">
         <v>2</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="43">
         <v>2</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="43">
         <v>2</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="44">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="25">
         <v>2</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="C12" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="44">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
+      <c r="C15" s="42">
+        <v>1</v>
+      </c>
+      <c r="D15" s="43">
+        <v>1</v>
+      </c>
+      <c r="E15" s="43">
+        <v>1</v>
+      </c>
+      <c r="F15" s="43">
+        <v>1</v>
+      </c>
+      <c r="G15" s="43">
+        <v>1</v>
+      </c>
+      <c r="H15" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="25">
         <v>3</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="C19" s="42">
+        <v>2</v>
+      </c>
+      <c r="D19" s="43">
+        <v>2</v>
+      </c>
+      <c r="E19" s="43">
+        <v>2</v>
+      </c>
+      <c r="F19" s="43">
+        <v>2</v>
+      </c>
+      <c r="G19" s="43">
+        <v>2</v>
+      </c>
+      <c r="H19" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
+      <c r="C22" s="42">
+        <v>4.5</v>
+      </c>
+      <c r="D22" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="E22" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="F22" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="G22" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="H22" s="44">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="25">
         <v>4</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="C25" s="35">
+        <v>2</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="A32" s="25">
         <v>5</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="31"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="26"/>
+      <c r="B38" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="34"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
     </row>
     <row r="39" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
+      <c r="A39" s="25">
         <v>6</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="36"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="31"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="31"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="23"/>
+      <c r="B42" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="31"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="10" t="s">
+      <c r="A43" s="23"/>
+      <c r="B43" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="31"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="10" t="s">
+      <c r="A44" s="23"/>
+      <c r="B44" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="31"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="26"/>
+      <c r="B45" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="34"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="19"/>
     </row>
     <row r="46" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
+      <c r="A46" s="25">
         <v>7</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="10" t="s">
+      <c r="A47" s="23"/>
+      <c r="B47" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="31"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="10" t="s">
+      <c r="A48" s="23"/>
+      <c r="B48" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="31"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="10" t="s">
+      <c r="A49" s="23"/>
+      <c r="B49" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="31"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
     </row>
     <row r="50" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="10" t="s">
+      <c r="A50" s="23"/>
+      <c r="B50" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="31"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="10" t="s">
+      <c r="A51" s="23"/>
+      <c r="B51" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17"/>
     </row>
     <row r="52" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="26"/>
+      <c r="B52" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="34"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="19"/>
     </row>
     <row r="53" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
+      <c r="A53" s="25">
         <v>8</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="36"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="10" t="s">
+      <c r="A54" s="23"/>
+      <c r="B54" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="31"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="10" t="s">
+      <c r="A55" s="23"/>
+      <c r="B55" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="31"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="17"/>
     </row>
     <row r="56" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="10" t="s">
+      <c r="A56" s="23"/>
+      <c r="B56" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="31"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="10" t="s">
+      <c r="A57" s="23"/>
+      <c r="B57" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="31"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="17"/>
     </row>
     <row r="58" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="10" t="s">
+      <c r="A58" s="23"/>
+      <c r="B58" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="31"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-      <c r="B59" s="12" t="s">
+      <c r="A59" s="26"/>
+      <c r="B59" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="34"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="19"/>
     </row>
     <row r="60" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="19">
+      <c r="A60" s="25">
         <v>9</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="21"/>
     </row>
     <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="10" t="s">
+      <c r="A61" s="23"/>
+      <c r="B61" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="31"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="17"/>
     </row>
     <row r="62" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="10" t="s">
+      <c r="A62" s="23"/>
+      <c r="B62" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="31"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="10" t="s">
+      <c r="A63" s="23"/>
+      <c r="B63" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="31"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="17"/>
     </row>
     <row r="64" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="10" t="s">
+      <c r="A64" s="23"/>
+      <c r="B64" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="31"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="17"/>
     </row>
     <row r="65" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="10" t="s">
+      <c r="A65" s="23"/>
+      <c r="B65" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="31"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="17"/>
     </row>
     <row r="66" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
-      <c r="B66" s="12" t="s">
+      <c r="A66" s="26"/>
+      <c r="B66" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="34"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="19"/>
     </row>
     <row r="67" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="19">
+      <c r="A67" s="25">
         <v>10</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="36"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="21"/>
     </row>
     <row r="68" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-      <c r="B68" s="10" t="s">
+      <c r="A68" s="23"/>
+      <c r="B68" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="31"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="17"/>
     </row>
     <row r="69" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="10" t="s">
+      <c r="A69" s="23"/>
+      <c r="B69" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="31"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="17"/>
     </row>
     <row r="70" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="10" t="s">
+      <c r="A70" s="23"/>
+      <c r="B70" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="31"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="17"/>
     </row>
     <row r="71" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="10" t="s">
+      <c r="A71" s="23"/>
+      <c r="B71" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="31"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="17"/>
     </row>
     <row r="72" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="10" t="s">
+      <c r="A72" s="23"/>
+      <c r="B72" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="31"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
-      <c r="B73" s="12" t="s">
+      <c r="A73" s="26"/>
+      <c r="B73" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="34"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="19"/>
     </row>
     <row r="74" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="19">
+      <c r="A74" s="25">
         <v>11</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="36"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="21"/>
     </row>
     <row r="75" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="10" t="s">
+      <c r="A75" s="23"/>
+      <c r="B75" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="31"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="17"/>
     </row>
     <row r="76" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="B76" s="10" t="s">
+      <c r="A76" s="23"/>
+      <c r="B76" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="31"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="17"/>
     </row>
     <row r="77" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" s="10" t="s">
+      <c r="A77" s="23"/>
+      <c r="B77" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="31"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="17"/>
     </row>
     <row r="78" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="10" t="s">
+      <c r="A78" s="23"/>
+      <c r="B78" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="31"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="17"/>
     </row>
     <row r="79" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="10" t="s">
+      <c r="A79" s="23"/>
+      <c r="B79" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="31"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="17"/>
     </row>
     <row r="80" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
-      <c r="B80" s="12" t="s">
+      <c r="A80" s="26"/>
+      <c r="B80" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="34"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="19"/>
     </row>
     <row r="81" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="19">
+      <c r="A81" s="25">
         <v>12</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="36"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="21"/>
     </row>
     <row r="82" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
-      <c r="B82" s="10" t="s">
+      <c r="A82" s="23"/>
+      <c r="B82" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="31"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="17"/>
     </row>
     <row r="83" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
-      <c r="B83" s="10" t="s">
+      <c r="A83" s="23"/>
+      <c r="B83" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="31"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="17"/>
     </row>
     <row r="84" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="17"/>
-      <c r="B84" s="10" t="s">
+      <c r="A84" s="23"/>
+      <c r="B84" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="31"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="17"/>
     </row>
     <row r="85" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="B85" s="10" t="s">
+      <c r="A85" s="23"/>
+      <c r="B85" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="31"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="17"/>
     </row>
     <row r="86" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
-      <c r="B86" s="10" t="s">
+      <c r="A86" s="23"/>
+      <c r="B86" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="31"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="17"/>
     </row>
     <row r="87" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="18"/>
-      <c r="B87" s="12" t="s">
+      <c r="A87" s="26"/>
+      <c r="B87" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="34"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="19"/>
     </row>
     <row r="88" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="16">
+      <c r="A88" s="22">
         <v>13</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="31"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="17"/>
     </row>
     <row r="89" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
-      <c r="B89" s="10" t="s">
+      <c r="A89" s="23"/>
+      <c r="B89" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="31"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="17"/>
     </row>
     <row r="90" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="B90" s="10" t="s">
+      <c r="A90" s="23"/>
+      <c r="B90" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="31"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="17"/>
     </row>
     <row r="91" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="B91" s="10" t="s">
+      <c r="A91" s="23"/>
+      <c r="B91" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="31"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="17"/>
     </row>
     <row r="92" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="17"/>
-      <c r="B92" s="10" t="s">
+      <c r="A92" s="23"/>
+      <c r="B92" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="31"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="17"/>
-      <c r="B93" s="10" t="s">
+      <c r="A93" s="23"/>
+      <c r="B93" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="31"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="17"/>
     </row>
     <row r="94" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="20"/>
-      <c r="B94" s="11" t="s">
+      <c r="A94" s="24"/>
+      <c r="B94" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="38"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="40"/>
     </row>
     <row r="95" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="2">
-        <f>SUM(C4:C94)</f>
-        <v>3.5</v>
+        <f t="shared" ref="C95:H95" si="0">SUM(C4:C94)</f>
+        <v>15</v>
       </c>
       <c r="D95" s="2">
-        <f>SUM(D4:D94)</f>
-        <v>3.5</v>
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
       <c r="E95" s="2">
-        <f>SUM(E4:E94)</f>
-        <v>3.5</v>
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
       <c r="F95" s="2">
-        <f>SUM(F4:F94)</f>
-        <v>3.5</v>
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
       <c r="G95" s="2">
-        <f>SUM(G4:G94)</f>
-        <v>3.5</v>
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
       <c r="H95" s="3">
-        <f>SUM(H4:H94)</f>
-        <v>3.5</v>
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="4">
         <f>C95/13</f>
-        <v>0.26923076923076922</v>
+        <v>1.1538461538461537</v>
       </c>
       <c r="D96" s="4">
-        <f t="shared" ref="D96:H96" si="0">D95/13</f>
-        <v>0.26923076923076922</v>
+        <f t="shared" ref="D96:H96" si="1">D95/13</f>
+        <v>0.96153846153846156</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="0"/>
-        <v>0.26923076923076922</v>
+        <f t="shared" si="1"/>
+        <v>0.96153846153846156</v>
       </c>
       <c r="F96" s="4">
-        <f t="shared" si="0"/>
-        <v>0.26923076923076922</v>
+        <f t="shared" si="1"/>
+        <v>0.96153846153846156</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" si="0"/>
-        <v>0.26923076923076922</v>
+        <f t="shared" si="1"/>
+        <v>0.96153846153846156</v>
       </c>
       <c r="H96" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26923076923076922</v>
+        <f t="shared" si="1"/>
+        <v>0.96153846153846156</v>
       </c>
     </row>
   </sheetData>

--- a/Hours Log.xlsx
+++ b/Hours Log.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barlc_000\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armsj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,20 +388,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,54 +458,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,15 +791,15 @@
   <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="14.46484375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
       <c r="B2" s="8"/>
       <c r="C2" s="13" t="s">
@@ -840,1222 +840,1226 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="43">
         <v>1</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="27" t="s">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44"/>
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="34">
         <v>1.5</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="35">
+        <v>2</v>
+      </c>
+      <c r="E5" s="35">
         <v>1.5</v>
       </c>
-      <c r="E5" s="43">
+      <c r="F5" s="35">
         <v>1.5</v>
       </c>
-      <c r="F5" s="43">
+      <c r="G5" s="35">
         <v>1.5</v>
       </c>
-      <c r="G5" s="43">
+      <c r="H5" s="36">
         <v>1.5</v>
       </c>
-      <c r="H5" s="44">
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="44"/>
+      <c r="B6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="44"/>
+      <c r="B7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="44"/>
+      <c r="B8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="34">
+        <v>2</v>
+      </c>
+      <c r="D8" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="35">
+        <v>2</v>
+      </c>
+      <c r="F8" s="35">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35">
+        <v>2</v>
+      </c>
+      <c r="H8" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="44"/>
+      <c r="B9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="47"/>
+      <c r="B10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46">
+        <v>2</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="44"/>
+      <c r="B12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="34">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="27" t="s">
+      <c r="D12" s="35">
+        <v>2</v>
+      </c>
+      <c r="E12" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="36">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="44"/>
+      <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="27" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="44"/>
+      <c r="B14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="27" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="44"/>
+      <c r="B15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C15" s="34">
+        <v>1</v>
+      </c>
+      <c r="D15" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="35">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35">
+        <v>1</v>
+      </c>
+      <c r="G15" s="35">
+        <v>1</v>
+      </c>
+      <c r="H15" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="44"/>
+      <c r="B16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="47"/>
+      <c r="B17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="46">
+        <v>3</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="44"/>
+      <c r="B19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="34">
         <v>2</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D19" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="E19" s="35">
         <v>2</v>
       </c>
-      <c r="E8" s="43">
+      <c r="F19" s="35">
         <v>2</v>
       </c>
-      <c r="F8" s="43">
+      <c r="G19" s="35">
         <v>2</v>
       </c>
-      <c r="G8" s="43">
+      <c r="H19" s="36">
         <v>2</v>
       </c>
-      <c r="H8" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="27" t="s">
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="44"/>
+      <c r="B20" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="44"/>
+      <c r="B21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="44"/>
+      <c r="B22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="D22" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="E22" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="F22" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="G22" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="H22" s="36">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="44"/>
+      <c r="B23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
-        <v>2</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="42">
-        <v>1.5</v>
-      </c>
-      <c r="D12" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="E12" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="F12" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="G12" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="H12" s="44">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="42">
-        <v>1</v>
-      </c>
-      <c r="D15" s="43">
-        <v>1</v>
-      </c>
-      <c r="E15" s="43">
-        <v>1</v>
-      </c>
-      <c r="F15" s="43">
-        <v>1</v>
-      </c>
-      <c r="G15" s="43">
-        <v>1</v>
-      </c>
-      <c r="H15" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
-        <v>3</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="42">
-        <v>2</v>
-      </c>
-      <c r="D19" s="43">
-        <v>2</v>
-      </c>
-      <c r="E19" s="43">
-        <v>2</v>
-      </c>
-      <c r="F19" s="43">
-        <v>2</v>
-      </c>
-      <c r="G19" s="43">
-        <v>2</v>
-      </c>
-      <c r="H19" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="42">
-        <v>4.5</v>
-      </c>
-      <c r="D22" s="43">
-        <v>4.5</v>
-      </c>
-      <c r="E22" s="43">
-        <v>4.5</v>
-      </c>
-      <c r="F22" s="43">
-        <v>4.5</v>
-      </c>
-      <c r="G22" s="43">
-        <v>4.5</v>
-      </c>
-      <c r="H22" s="44">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="28" t="s">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="47"/>
+      <c r="B24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="46">
         <v>4</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="27">
         <v>2</v>
       </c>
-      <c r="D25" s="20"/>
+      <c r="D25" s="20">
+        <v>2</v>
+      </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="27" t="s">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="44"/>
+      <c r="B26" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="36"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="17"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="27" t="s">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="44"/>
+      <c r="B27" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="36"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="17"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="27" t="s">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="44"/>
+      <c r="B28" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="36"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="17"/>
     </row>
-    <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="27" t="s">
+    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A29" s="44"/>
+      <c r="B29" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="36"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="17"/>
     </row>
-    <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="27" t="s">
+    <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A30" s="44"/>
+      <c r="B30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="36"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="17"/>
     </row>
-    <row r="31" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="28" t="s">
+    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A31" s="47"/>
+      <c r="B31" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="37"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="19"/>
     </row>
-    <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+    <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A32" s="46">
         <v>5</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="35"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="21"/>
     </row>
-    <row r="33" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="27" t="s">
+    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A33" s="44"/>
+      <c r="B33" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="36"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="17"/>
     </row>
-    <row r="34" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="27" t="s">
+    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A34" s="44"/>
+      <c r="B34" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="36"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="17"/>
     </row>
-    <row r="35" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="27" t="s">
+    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A35" s="44"/>
+      <c r="B35" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="36"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="17"/>
     </row>
-    <row r="36" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="27" t="s">
+    <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A36" s="44"/>
+      <c r="B36" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="36"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="17"/>
     </row>
-    <row r="37" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="27" t="s">
+    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A37" s="44"/>
+      <c r="B37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="36"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
     </row>
-    <row r="38" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="28" t="s">
+    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A38" s="47"/>
+      <c r="B38" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="37"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="19"/>
     </row>
-    <row r="39" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
+    <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A39" s="46">
         <v>6</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="35"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="21"/>
     </row>
-    <row r="40" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="27" t="s">
+    <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A40" s="44"/>
+      <c r="B40" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="36"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="27" t="s">
+    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A41" s="44"/>
+      <c r="B41" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="36"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
       <c r="H41" s="17"/>
     </row>
-    <row r="42" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="27" t="s">
+    <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A42" s="44"/>
+      <c r="B42" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="36"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="17"/>
     </row>
-    <row r="43" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="27" t="s">
+    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A43" s="44"/>
+      <c r="B43" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="36"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="17"/>
     </row>
-    <row r="44" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="27" t="s">
+    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A44" s="44"/>
+      <c r="B44" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="36"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="17"/>
     </row>
-    <row r="45" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="28" t="s">
+    <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A45" s="47"/>
+      <c r="B45" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="37"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="19"/>
     </row>
-    <row r="46" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="25">
+    <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A46" s="46">
         <v>7</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="35"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="21"/>
     </row>
-    <row r="47" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="27" t="s">
+    <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A47" s="44"/>
+      <c r="B47" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="36"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
       <c r="H47" s="17"/>
     </row>
-    <row r="48" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="27" t="s">
+    <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A48" s="44"/>
+      <c r="B48" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="36"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="27" t="s">
+    <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A49" s="44"/>
+      <c r="B49" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="36"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
       <c r="H49" s="17"/>
     </row>
-    <row r="50" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="27" t="s">
+    <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A50" s="44"/>
+      <c r="B50" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="36"/>
+      <c r="C50" s="28"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
       <c r="H50" s="17"/>
     </row>
-    <row r="51" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="27" t="s">
+    <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A51" s="44"/>
+      <c r="B51" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="28"/>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
       <c r="H51" s="17"/>
     </row>
-    <row r="52" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="28" t="s">
+    <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A52" s="47"/>
+      <c r="B52" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="37"/>
+      <c r="C52" s="29"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="19"/>
     </row>
-    <row r="53" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="25">
+    <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A53" s="46">
         <v>8</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="21"/>
     </row>
-    <row r="54" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="27" t="s">
+    <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A54" s="44"/>
+      <c r="B54" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="36"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="17"/>
     </row>
-    <row r="55" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="27" t="s">
+    <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A55" s="44"/>
+      <c r="B55" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="36"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
       <c r="H55" s="17"/>
     </row>
-    <row r="56" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="27" t="s">
+    <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A56" s="44"/>
+      <c r="B56" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="36"/>
+      <c r="C56" s="28"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="17"/>
     </row>
-    <row r="57" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="27" t="s">
+    <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A57" s="44"/>
+      <c r="B57" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="36"/>
+      <c r="C57" s="28"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57" s="17"/>
     </row>
-    <row r="58" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="27" t="s">
+    <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A58" s="44"/>
+      <c r="B58" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="36"/>
+      <c r="C58" s="28"/>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
       <c r="H58" s="17"/>
     </row>
-    <row r="59" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="28" t="s">
+    <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A59" s="47"/>
+      <c r="B59" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="37"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="19"/>
     </row>
-    <row r="60" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="25">
+    <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A60" s="46">
         <v>9</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="35"/>
+      <c r="C60" s="27"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
       <c r="H60" s="21"/>
     </row>
-    <row r="61" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="27" t="s">
+    <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A61" s="44"/>
+      <c r="B61" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="36"/>
+      <c r="C61" s="28"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
       <c r="H61" s="17"/>
     </row>
-    <row r="62" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="27" t="s">
+    <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A62" s="44"/>
+      <c r="B62" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="36"/>
+      <c r="C62" s="28"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
       <c r="H62" s="17"/>
     </row>
-    <row r="63" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="27" t="s">
+    <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A63" s="44"/>
+      <c r="B63" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="36"/>
+      <c r="C63" s="28"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="17"/>
     </row>
-    <row r="64" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="27" t="s">
+    <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A64" s="44"/>
+      <c r="B64" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="36"/>
+      <c r="C64" s="28"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
       <c r="H64" s="17"/>
     </row>
-    <row r="65" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="27" t="s">
+    <row r="65" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A65" s="44"/>
+      <c r="B65" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="36"/>
+      <c r="C65" s="28"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
     </row>
-    <row r="66" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="28" t="s">
+    <row r="66" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A66" s="47"/>
+      <c r="B66" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="37"/>
+      <c r="C66" s="29"/>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
       <c r="H66" s="19"/>
     </row>
-    <row r="67" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="25">
+    <row r="67" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A67" s="46">
         <v>10</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="35"/>
+      <c r="C67" s="27"/>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
       <c r="H67" s="21"/>
     </row>
-    <row r="68" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="27" t="s">
+    <row r="68" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A68" s="44"/>
+      <c r="B68" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="36"/>
+      <c r="C68" s="28"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
       <c r="H68" s="17"/>
     </row>
-    <row r="69" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="27" t="s">
+    <row r="69" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A69" s="44"/>
+      <c r="B69" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="36"/>
+      <c r="C69" s="28"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
       <c r="H69" s="17"/>
     </row>
-    <row r="70" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="27" t="s">
+    <row r="70" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A70" s="44"/>
+      <c r="B70" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="36"/>
+      <c r="C70" s="28"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
       <c r="H70" s="17"/>
     </row>
-    <row r="71" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="27" t="s">
+    <row r="71" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A71" s="44"/>
+      <c r="B71" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="36"/>
+      <c r="C71" s="28"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
       <c r="H71" s="17"/>
     </row>
-    <row r="72" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="27" t="s">
+    <row r="72" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A72" s="44"/>
+      <c r="B72" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="36"/>
+      <c r="C72" s="28"/>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
       <c r="H72" s="17"/>
     </row>
-    <row r="73" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="28" t="s">
+    <row r="73" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A73" s="47"/>
+      <c r="B73" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="37"/>
+      <c r="C73" s="29"/>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="H73" s="19"/>
     </row>
-    <row r="74" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="25">
+    <row r="74" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A74" s="46">
         <v>11</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="35"/>
+      <c r="C74" s="27"/>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
       <c r="H74" s="21"/>
     </row>
-    <row r="75" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="27" t="s">
+    <row r="75" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A75" s="44"/>
+      <c r="B75" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="36"/>
+      <c r="C75" s="28"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
       <c r="H75" s="17"/>
     </row>
-    <row r="76" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="27" t="s">
+    <row r="76" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A76" s="44"/>
+      <c r="B76" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="36"/>
+      <c r="C76" s="28"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76" s="17"/>
     </row>
-    <row r="77" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="27" t="s">
+    <row r="77" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A77" s="44"/>
+      <c r="B77" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="36"/>
+      <c r="C77" s="28"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77" s="17"/>
     </row>
-    <row r="78" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="27" t="s">
+    <row r="78" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A78" s="44"/>
+      <c r="B78" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="36"/>
+      <c r="C78" s="28"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="17"/>
     </row>
-    <row r="79" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="27" t="s">
+    <row r="79" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A79" s="44"/>
+      <c r="B79" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="36"/>
+      <c r="C79" s="28"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79" s="17"/>
     </row>
-    <row r="80" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="28" t="s">
+    <row r="80" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A80" s="47"/>
+      <c r="B80" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="37"/>
+      <c r="C80" s="29"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
       <c r="H80" s="19"/>
     </row>
-    <row r="81" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="25">
+    <row r="81" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A81" s="46">
         <v>12</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="35"/>
+      <c r="C81" s="27"/>
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
       <c r="H81" s="21"/>
     </row>
-    <row r="82" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="27" t="s">
+    <row r="82" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A82" s="44"/>
+      <c r="B82" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="36"/>
+      <c r="C82" s="28"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
       <c r="H82" s="17"/>
     </row>
-    <row r="83" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="27" t="s">
+    <row r="83" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A83" s="44"/>
+      <c r="B83" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="36"/>
+      <c r="C83" s="28"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
       <c r="H83" s="17"/>
     </row>
-    <row r="84" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="27" t="s">
+    <row r="84" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A84" s="44"/>
+      <c r="B84" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="36"/>
+      <c r="C84" s="28"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
       <c r="H84" s="17"/>
     </row>
-    <row r="85" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
-      <c r="B85" s="27" t="s">
+    <row r="85" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A85" s="44"/>
+      <c r="B85" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="36"/>
+      <c r="C85" s="28"/>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
       <c r="H85" s="17"/>
     </row>
-    <row r="86" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
-      <c r="B86" s="27" t="s">
+    <row r="86" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A86" s="44"/>
+      <c r="B86" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="36"/>
+      <c r="C86" s="28"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
       <c r="H86" s="17"/>
     </row>
-    <row r="87" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
-      <c r="B87" s="28" t="s">
+    <row r="87" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A87" s="47"/>
+      <c r="B87" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C87" s="37"/>
+      <c r="C87" s="29"/>
       <c r="D87" s="18"/>
       <c r="E87" s="18"/>
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
       <c r="H87" s="19"/>
     </row>
-    <row r="88" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="22">
+    <row r="88" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A88" s="43">
         <v>13</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="36"/>
+      <c r="C88" s="28"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
       <c r="H88" s="17"/>
     </row>
-    <row r="89" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
-      <c r="B89" s="27" t="s">
+    <row r="89" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A89" s="44"/>
+      <c r="B89" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="36"/>
+      <c r="C89" s="28"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
       <c r="H89" s="17"/>
     </row>
-    <row r="90" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
-      <c r="B90" s="27" t="s">
+    <row r="90" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A90" s="44"/>
+      <c r="B90" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="36"/>
+      <c r="C90" s="28"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
       <c r="H90" s="17"/>
     </row>
-    <row r="91" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="B91" s="27" t="s">
+    <row r="91" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A91" s="44"/>
+      <c r="B91" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="36"/>
+      <c r="C91" s="28"/>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
       <c r="H91" s="17"/>
     </row>
-    <row r="92" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="23"/>
-      <c r="B92" s="27" t="s">
+    <row r="92" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A92" s="44"/>
+      <c r="B92" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="36"/>
+      <c r="C92" s="28"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
       <c r="H92" s="17"/>
     </row>
-    <row r="93" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="23"/>
-      <c r="B93" s="27" t="s">
+    <row r="93" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A93" s="44"/>
+      <c r="B93" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="36"/>
+      <c r="C93" s="28"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
       <c r="H93" s="17"/>
     </row>
-    <row r="94" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="24"/>
-      <c r="B94" s="31" t="s">
+    <row r="94" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="45"/>
+      <c r="B94" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="38"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="40"/>
-    </row>
-    <row r="95" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C94" s="30"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="32"/>
+    </row>
+    <row r="95" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A95" s="9" t="s">
         <v>11</v>
       </c>
@@ -2066,7 +2070,7 @@
       </c>
       <c r="D95" s="2">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="E95" s="2">
         <f t="shared" si="0"/>
@@ -2085,7 +2089,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="11" t="s">
         <v>19</v>
       </c>
@@ -2096,7 +2100,7 @@
       </c>
       <c r="D96" s="4">
         <f t="shared" ref="D96:H96" si="1">D95/13</f>
-        <v>0.96153846153846156</v>
+        <v>1.4230769230769231</v>
       </c>
       <c r="E96" s="4">
         <f t="shared" si="1"/>

--- a/Hours Log.xlsx
+++ b/Hours Log.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armsj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barlc_000\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13404" windowHeight="8436"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="21">
   <si>
     <t>Design Hours</t>
   </si>
@@ -80,6 +80,9 @@
   <si>
     <t>avg. p/wk</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
@@ -128,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -343,11 +346,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -458,6 +504,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,106 +843,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.46484375" style="12"/>
+    <col min="1" max="1" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="49"/>
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43">
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="16"/>
+      <c r="C4" s="51">
+        <v>42793</v>
+      </c>
+      <c r="D4" s="33"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="51">
+        <v>42794</v>
+      </c>
+      <c r="D5" s="34">
         <v>1.5</v>
       </c>
-      <c r="D5" s="35">
+      <c r="E5" s="35">
         <v>2</v>
-      </c>
-      <c r="E5" s="35">
-        <v>1.5</v>
       </c>
       <c r="F5" s="35">
         <v>1.5</v>
@@ -895,49 +958,58 @@
       <c r="G5" s="35">
         <v>1.5</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="35">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="36">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="51">
+        <v>42795</v>
+      </c>
+      <c r="D6" s="34">
         <v>0.5</v>
       </c>
-      <c r="D6" s="35"/>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
+      <c r="C7" s="51">
+        <v>42796</v>
+      </c>
+      <c r="D7" s="34"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="51">
+        <v>42797</v>
+      </c>
+      <c r="D8" s="34">
         <v>2</v>
       </c>
-      <c r="D8" s="35">
+      <c r="E8" s="35">
         <v>2.5</v>
-      </c>
-      <c r="E8" s="35">
-        <v>2</v>
       </c>
       <c r="F8" s="35">
         <v>2</v>
@@ -945,61 +1017,73 @@
       <c r="G8" s="35">
         <v>2</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="51">
+        <v>42798</v>
+      </c>
+      <c r="D9" s="34"/>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="53">
+        <v>42799</v>
+      </c>
+      <c r="D10" s="37"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46">
         <v>2</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
+      <c r="C11" s="52">
+        <v>42800</v>
+      </c>
+      <c r="D11" s="40"/>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="51">
+        <v>42801</v>
+      </c>
+      <c r="D12" s="34">
         <v>1.5</v>
       </c>
-      <c r="D12" s="35">
+      <c r="E12" s="35">
         <v>2</v>
-      </c>
-      <c r="E12" s="35">
-        <v>1.5</v>
       </c>
       <c r="F12" s="35">
         <v>1.5</v>
@@ -1007,47 +1091,56 @@
       <c r="G12" s="35">
         <v>1.5</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="35">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="36">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="51">
+        <v>42802</v>
+      </c>
+      <c r="D13" s="34"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
       <c r="B14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
+      <c r="C14" s="51">
+        <v>42803</v>
+      </c>
+      <c r="D14" s="34"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="51">
+        <v>42804</v>
+      </c>
+      <c r="D15" s="34">
         <v>1</v>
       </c>
-      <c r="D15" s="35">
+      <c r="E15" s="35">
         <v>1.5</v>
-      </c>
-      <c r="E15" s="35">
-        <v>1</v>
       </c>
       <c r="F15" s="35">
         <v>1</v>
@@ -1055,63 +1148,75 @@
       <c r="G15" s="35">
         <v>1</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="51">
+        <v>42805</v>
+      </c>
+      <c r="D16" s="34"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38">
+      <c r="C17" s="53">
+        <v>42806</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38">
         <v>1.5</v>
       </c>
-      <c r="E17" s="38"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="46">
         <v>3</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="52">
+        <v>42807</v>
+      </c>
+      <c r="D18" s="34"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="51">
+        <v>42808</v>
+      </c>
+      <c r="D19" s="34">
         <v>2</v>
       </c>
-      <c r="D19" s="35">
+      <c r="E19" s="35">
         <v>2.5</v>
-      </c>
-      <c r="E19" s="35">
-        <v>2</v>
       </c>
       <c r="F19" s="35">
         <v>2</v>
@@ -1119,43 +1224,52 @@
       <c r="G19" s="35">
         <v>2</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="51">
+        <v>42809</v>
+      </c>
+      <c r="D20" s="34"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="51">
+        <v>42810</v>
+      </c>
+      <c r="D21" s="34"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="34">
-        <v>4.5</v>
-      </c>
-      <c r="D22" s="35">
+      <c r="C22" s="51">
+        <v>42811</v>
+      </c>
+      <c r="D22" s="34">
         <v>4.5</v>
       </c>
       <c r="E22" s="35">
@@ -1167,956 +1281,1205 @@
       <c r="G22" s="35">
         <v>4.5</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="35">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="36">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="16"/>
+      <c r="C23" s="51">
+        <v>42812</v>
+      </c>
+      <c r="D23" s="28"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
       <c r="B24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="53">
+        <v>42813</v>
+      </c>
+      <c r="D24" s="29"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="46">
         <v>4</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="52">
+        <v>42814</v>
+      </c>
+      <c r="D25" s="27">
         <v>2</v>
       </c>
-      <c r="D25" s="20">
+      <c r="E25" s="20">
         <v>2</v>
       </c>
-      <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
       <c r="B26" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="C26" s="51">
+        <v>42815</v>
+      </c>
+      <c r="D26" s="28">
+        <v>1</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1</v>
+      </c>
       <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H26" s="16">
+        <v>1</v>
+      </c>
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="16"/>
+      <c r="C27" s="51">
+        <v>42816</v>
+      </c>
+      <c r="D27" s="28">
+        <v>7</v>
+      </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="51">
+        <v>42817</v>
+      </c>
+      <c r="D28" s="28">
+        <v>4</v>
+      </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="C29" s="51">
+        <v>42818</v>
+      </c>
+      <c r="D29" s="28">
+        <v>5</v>
+      </c>
+      <c r="E29" s="16">
+        <v>4</v>
+      </c>
+      <c r="F29" s="16">
+        <v>4</v>
+      </c>
+      <c r="G29" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="H29" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="I29" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="44"/>
       <c r="B30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="16"/>
+      <c r="C30" s="51">
+        <v>42819</v>
+      </c>
+      <c r="D30" s="28">
+        <v>3</v>
+      </c>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="47"/>
       <c r="B31" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="18"/>
+      <c r="C31" s="53">
+        <v>42820</v>
+      </c>
+      <c r="D31" s="29"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="46">
         <v>5</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="52">
+        <v>42821</v>
+      </c>
+      <c r="D32" s="27"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H32" s="20"/>
+      <c r="I32" s="21"/>
+    </row>
+    <row r="33" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44"/>
       <c r="B33" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="16"/>
+      <c r="C33" s="51">
+        <v>42822</v>
+      </c>
+      <c r="D33" s="28"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="44"/>
       <c r="B34" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="16"/>
+      <c r="C34" s="51">
+        <v>42823</v>
+      </c>
+      <c r="D34" s="28"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-    </row>
-    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="44"/>
       <c r="B35" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="16"/>
+      <c r="C35" s="51">
+        <v>42824</v>
+      </c>
+      <c r="D35" s="28"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-    </row>
-    <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="44"/>
       <c r="B36" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="51">
+        <v>42825</v>
+      </c>
+      <c r="D36" s="28"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-    </row>
-    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="51">
+        <v>42826</v>
+      </c>
+      <c r="D37" s="28"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="47"/>
       <c r="B38" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="18"/>
+      <c r="C38" s="53">
+        <v>42827</v>
+      </c>
+      <c r="D38" s="29"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
-    </row>
-    <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H38" s="18"/>
+      <c r="I38" s="19"/>
+    </row>
+    <row r="39" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="46">
         <v>6</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="20"/>
+      <c r="C39" s="52">
+        <v>42828</v>
+      </c>
+      <c r="D39" s="27"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H39" s="20"/>
+      <c r="I39" s="21"/>
+    </row>
+    <row r="40" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="16"/>
+      <c r="C40" s="51">
+        <v>42829</v>
+      </c>
+      <c r="D40" s="28"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
-      <c r="H40" s="17"/>
-    </row>
-    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H40" s="16"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
       <c r="B41" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="16"/>
+      <c r="C41" s="51">
+        <v>42830</v>
+      </c>
+      <c r="D41" s="28"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
-    </row>
-    <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="16"/>
+      <c r="C42" s="51">
+        <v>42831</v>
+      </c>
+      <c r="D42" s="28"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="17"/>
-    </row>
-    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H42" s="16"/>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
       <c r="B43" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="16"/>
+      <c r="C43" s="51">
+        <v>42832</v>
+      </c>
+      <c r="D43" s="28"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
-      <c r="H43" s="17"/>
-    </row>
-    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H43" s="16"/>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="16"/>
+      <c r="C44" s="51">
+        <v>42833</v>
+      </c>
+      <c r="D44" s="28"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
-      <c r="H44" s="17"/>
-    </row>
-    <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
       <c r="B45" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="18"/>
+      <c r="C45" s="53">
+        <v>42834</v>
+      </c>
+      <c r="D45" s="29"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
-    </row>
-    <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="46">
         <v>7</v>
       </c>
       <c r="B46" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="20"/>
+      <c r="C46" s="52">
+        <v>42835</v>
+      </c>
+      <c r="D46" s="27"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
-      <c r="H46" s="21"/>
-    </row>
-    <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H46" s="20"/>
+      <c r="I46" s="21"/>
+    </row>
+    <row r="47" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="44"/>
       <c r="B47" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="16"/>
+      <c r="C47" s="51">
+        <v>42836</v>
+      </c>
+      <c r="D47" s="28"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
-      <c r="H47" s="17"/>
-    </row>
-    <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H47" s="16"/>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="44"/>
       <c r="B48" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="16"/>
+      <c r="C48" s="51">
+        <v>42837</v>
+      </c>
+      <c r="D48" s="28"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
-      <c r="H48" s="17"/>
-    </row>
-    <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H48" s="16"/>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="44"/>
       <c r="B49" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="16"/>
+      <c r="C49" s="51">
+        <v>42838</v>
+      </c>
+      <c r="D49" s="28"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
-      <c r="H49" s="17"/>
-    </row>
-    <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H49" s="16"/>
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="44"/>
       <c r="B50" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="16"/>
+      <c r="C50" s="51">
+        <v>42839</v>
+      </c>
+      <c r="D50" s="28"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
-      <c r="H50" s="17"/>
-    </row>
-    <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H50" s="16"/>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="44"/>
       <c r="B51" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="16"/>
+      <c r="C51" s="51">
+        <v>42840</v>
+      </c>
+      <c r="D51" s="28"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
-    </row>
-    <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="47"/>
       <c r="B52" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="18"/>
+      <c r="C52" s="53">
+        <v>42841</v>
+      </c>
+      <c r="D52" s="29"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
-      <c r="H52" s="19"/>
-    </row>
-    <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H52" s="18"/>
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="46">
         <v>8</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="20"/>
+      <c r="C53" s="52">
+        <v>42842</v>
+      </c>
+      <c r="D53" s="27"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="21"/>
-    </row>
-    <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H53" s="20"/>
+      <c r="I53" s="21"/>
+    </row>
+    <row r="54" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="44"/>
       <c r="B54" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="16"/>
+      <c r="C54" s="51">
+        <v>42843</v>
+      </c>
+      <c r="D54" s="28"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
-      <c r="H54" s="17"/>
-    </row>
-    <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H54" s="16"/>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="44"/>
       <c r="B55" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="16"/>
+      <c r="C55" s="51">
+        <v>42844</v>
+      </c>
+      <c r="D55" s="28"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
-      <c r="H55" s="17"/>
-    </row>
-    <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H55" s="16"/>
+      <c r="I55" s="17"/>
+    </row>
+    <row r="56" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="44"/>
       <c r="B56" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="16"/>
+      <c r="C56" s="51">
+        <v>42845</v>
+      </c>
+      <c r="D56" s="28"/>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
-      <c r="H56" s="17"/>
-    </row>
-    <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H56" s="16"/>
+      <c r="I56" s="17"/>
+    </row>
+    <row r="57" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="44"/>
       <c r="B57" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="16"/>
+      <c r="C57" s="51">
+        <v>42846</v>
+      </c>
+      <c r="D57" s="28"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
-      <c r="H57" s="17"/>
-    </row>
-    <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H57" s="16"/>
+      <c r="I57" s="17"/>
+    </row>
+    <row r="58" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="44"/>
       <c r="B58" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="16"/>
+      <c r="C58" s="51">
+        <v>42847</v>
+      </c>
+      <c r="D58" s="28"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
-      <c r="H58" s="17"/>
-    </row>
-    <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H58" s="16"/>
+      <c r="I58" s="17"/>
+    </row>
+    <row r="59" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="47"/>
       <c r="B59" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="18"/>
+      <c r="C59" s="53">
+        <v>42848</v>
+      </c>
+      <c r="D59" s="29"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
-      <c r="H59" s="19"/>
-    </row>
-    <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H59" s="18"/>
+      <c r="I59" s="19"/>
+    </row>
+    <row r="60" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="46">
         <v>9</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="20"/>
+      <c r="C60" s="52">
+        <v>42849</v>
+      </c>
+      <c r="D60" s="27"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
-      <c r="H60" s="21"/>
-    </row>
-    <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H60" s="20"/>
+      <c r="I60" s="21"/>
+    </row>
+    <row r="61" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="44"/>
       <c r="B61" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="16"/>
+      <c r="C61" s="51">
+        <v>42850</v>
+      </c>
+      <c r="D61" s="28"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
-    </row>
-    <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H61" s="16"/>
+      <c r="I61" s="17"/>
+    </row>
+    <row r="62" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="44"/>
       <c r="B62" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="16"/>
+      <c r="C62" s="51">
+        <v>42851</v>
+      </c>
+      <c r="D62" s="28"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
-      <c r="H62" s="17"/>
-    </row>
-    <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H62" s="16"/>
+      <c r="I62" s="17"/>
+    </row>
+    <row r="63" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="44"/>
       <c r="B63" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="16"/>
+      <c r="C63" s="51">
+        <v>42852</v>
+      </c>
+      <c r="D63" s="28"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
-      <c r="H63" s="17"/>
-    </row>
-    <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H63" s="16"/>
+      <c r="I63" s="17"/>
+    </row>
+    <row r="64" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="44"/>
       <c r="B64" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="16"/>
+      <c r="C64" s="51">
+        <v>42853</v>
+      </c>
+      <c r="D64" s="28"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
-      <c r="H64" s="17"/>
-    </row>
-    <row r="65" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H64" s="16"/>
+      <c r="I64" s="17"/>
+    </row>
+    <row r="65" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="44"/>
       <c r="B65" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="16"/>
+      <c r="C65" s="51">
+        <v>42854</v>
+      </c>
+      <c r="D65" s="28"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
-      <c r="H65" s="17"/>
-    </row>
-    <row r="66" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H65" s="16"/>
+      <c r="I65" s="17"/>
+    </row>
+    <row r="66" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="47"/>
       <c r="B66" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="18"/>
+      <c r="C66" s="53">
+        <v>42855</v>
+      </c>
+      <c r="D66" s="29"/>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
-      <c r="H66" s="19"/>
-    </row>
-    <row r="67" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H66" s="18"/>
+      <c r="I66" s="19"/>
+    </row>
+    <row r="67" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="46">
         <v>10</v>
       </c>
       <c r="B67" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="20"/>
+      <c r="C67" s="52">
+        <v>42856</v>
+      </c>
+      <c r="D67" s="27"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
-      <c r="H67" s="21"/>
-    </row>
-    <row r="68" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H67" s="20"/>
+      <c r="I67" s="21"/>
+    </row>
+    <row r="68" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="44"/>
       <c r="B68" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="16"/>
+      <c r="C68" s="51">
+        <v>42857</v>
+      </c>
+      <c r="D68" s="28"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
-      <c r="H68" s="17"/>
-    </row>
-    <row r="69" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H68" s="16"/>
+      <c r="I68" s="17"/>
+    </row>
+    <row r="69" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="44"/>
       <c r="B69" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="16"/>
+      <c r="C69" s="51">
+        <v>42858</v>
+      </c>
+      <c r="D69" s="28"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
-      <c r="H69" s="17"/>
-    </row>
-    <row r="70" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H69" s="16"/>
+      <c r="I69" s="17"/>
+    </row>
+    <row r="70" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="44"/>
       <c r="B70" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="16"/>
+      <c r="C70" s="51">
+        <v>42859</v>
+      </c>
+      <c r="D70" s="28"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
-      <c r="H70" s="17"/>
-    </row>
-    <row r="71" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H70" s="16"/>
+      <c r="I70" s="17"/>
+    </row>
+    <row r="71" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="44"/>
       <c r="B71" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="28"/>
-      <c r="D71" s="16"/>
+      <c r="C71" s="51">
+        <v>42860</v>
+      </c>
+      <c r="D71" s="28"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
-      <c r="H71" s="17"/>
-    </row>
-    <row r="72" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H71" s="16"/>
+      <c r="I71" s="17"/>
+    </row>
+    <row r="72" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="44"/>
       <c r="B72" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="16"/>
+      <c r="C72" s="51">
+        <v>42861</v>
+      </c>
+      <c r="D72" s="28"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
-      <c r="H72" s="17"/>
-    </row>
-    <row r="73" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H72" s="16"/>
+      <c r="I72" s="17"/>
+    </row>
+    <row r="73" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
       <c r="B73" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="29"/>
-      <c r="D73" s="18"/>
+      <c r="C73" s="53">
+        <v>42862</v>
+      </c>
+      <c r="D73" s="29"/>
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
-      <c r="H73" s="19"/>
-    </row>
-    <row r="74" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H73" s="18"/>
+      <c r="I73" s="19"/>
+    </row>
+    <row r="74" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="46">
         <v>11</v>
       </c>
       <c r="B74" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="20"/>
+      <c r="C74" s="52">
+        <v>42863</v>
+      </c>
+      <c r="D74" s="27"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
-      <c r="H74" s="21"/>
-    </row>
-    <row r="75" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H74" s="20"/>
+      <c r="I74" s="21"/>
+    </row>
+    <row r="75" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="44"/>
       <c r="B75" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="28"/>
-      <c r="D75" s="16"/>
+      <c r="C75" s="51">
+        <v>42864</v>
+      </c>
+      <c r="D75" s="28"/>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
-      <c r="H75" s="17"/>
-    </row>
-    <row r="76" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H75" s="16"/>
+      <c r="I75" s="17"/>
+    </row>
+    <row r="76" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="44"/>
       <c r="B76" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="16"/>
+      <c r="C76" s="51">
+        <v>42865</v>
+      </c>
+      <c r="D76" s="28"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
-      <c r="H76" s="17"/>
-    </row>
-    <row r="77" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H76" s="16"/>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="44"/>
       <c r="B77" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="16"/>
+      <c r="C77" s="51">
+        <v>42866</v>
+      </c>
+      <c r="D77" s="28"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
-      <c r="H77" s="17"/>
-    </row>
-    <row r="78" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H77" s="16"/>
+      <c r="I77" s="17"/>
+    </row>
+    <row r="78" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="44"/>
       <c r="B78" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="16"/>
+      <c r="C78" s="51">
+        <v>42867</v>
+      </c>
+      <c r="D78" s="28"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
-      <c r="H78" s="17"/>
-    </row>
-    <row r="79" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H78" s="16"/>
+      <c r="I78" s="17"/>
+    </row>
+    <row r="79" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="44"/>
       <c r="B79" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="16"/>
+      <c r="C79" s="51">
+        <v>42868</v>
+      </c>
+      <c r="D79" s="28"/>
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
-      <c r="H79" s="17"/>
-    </row>
-    <row r="80" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H79" s="16"/>
+      <c r="I79" s="17"/>
+    </row>
+    <row r="80" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="47"/>
       <c r="B80" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="18"/>
+      <c r="C80" s="53">
+        <v>42869</v>
+      </c>
+      <c r="D80" s="29"/>
       <c r="E80" s="18"/>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
-      <c r="H80" s="19"/>
-    </row>
-    <row r="81" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H80" s="18"/>
+      <c r="I80" s="19"/>
+    </row>
+    <row r="81" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="46">
         <v>12</v>
       </c>
       <c r="B81" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="20"/>
+      <c r="C81" s="52">
+        <v>42870</v>
+      </c>
+      <c r="D81" s="27"/>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
-      <c r="H81" s="21"/>
-    </row>
-    <row r="82" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H81" s="20"/>
+      <c r="I81" s="21"/>
+    </row>
+    <row r="82" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="44"/>
       <c r="B82" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="28"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="51">
+        <v>42871</v>
+      </c>
+      <c r="D82" s="28"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
-      <c r="H82" s="17"/>
-    </row>
-    <row r="83" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H82" s="16"/>
+      <c r="I82" s="17"/>
+    </row>
+    <row r="83" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="44"/>
       <c r="B83" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="28"/>
-      <c r="D83" s="16"/>
+      <c r="C83" s="51">
+        <v>42872</v>
+      </c>
+      <c r="D83" s="28"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
-      <c r="H83" s="17"/>
-    </row>
-    <row r="84" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H83" s="16"/>
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="44"/>
       <c r="B84" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="16"/>
+      <c r="C84" s="51">
+        <v>42873</v>
+      </c>
+      <c r="D84" s="28"/>
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="17"/>
-    </row>
-    <row r="85" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H84" s="16"/>
+      <c r="I84" s="17"/>
+    </row>
+    <row r="85" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="44"/>
       <c r="B85" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="16"/>
+      <c r="C85" s="51">
+        <v>42874</v>
+      </c>
+      <c r="D85" s="28"/>
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
-      <c r="H85" s="17"/>
-    </row>
-    <row r="86" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H85" s="16"/>
+      <c r="I85" s="17"/>
+    </row>
+    <row r="86" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="44"/>
       <c r="B86" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="16"/>
+      <c r="C86" s="51">
+        <v>42875</v>
+      </c>
+      <c r="D86" s="28"/>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
-      <c r="H86" s="17"/>
-    </row>
-    <row r="87" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H86" s="16"/>
+      <c r="I86" s="17"/>
+    </row>
+    <row r="87" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="47"/>
       <c r="B87" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="18"/>
+      <c r="C87" s="53">
+        <v>42876</v>
+      </c>
+      <c r="D87" s="29"/>
       <c r="E87" s="18"/>
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
-      <c r="H87" s="19"/>
-    </row>
-    <row r="88" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H87" s="18"/>
+      <c r="I87" s="19"/>
+    </row>
+    <row r="88" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="43">
         <v>13</v>
       </c>
       <c r="B88" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="16"/>
+      <c r="C88" s="52">
+        <v>42877</v>
+      </c>
+      <c r="D88" s="28"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="17"/>
-    </row>
-    <row r="89" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H88" s="16"/>
+      <c r="I88" s="17"/>
+    </row>
+    <row r="89" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="44"/>
       <c r="B89" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="16"/>
+      <c r="C89" s="51">
+        <v>42878</v>
+      </c>
+      <c r="D89" s="28"/>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
-      <c r="H89" s="17"/>
-    </row>
-    <row r="90" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H89" s="16"/>
+      <c r="I89" s="17"/>
+    </row>
+    <row r="90" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="44"/>
       <c r="B90" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="28"/>
-      <c r="D90" s="16"/>
+      <c r="C90" s="51">
+        <v>42879</v>
+      </c>
+      <c r="D90" s="28"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
-      <c r="H90" s="17"/>
-    </row>
-    <row r="91" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H90" s="16"/>
+      <c r="I90" s="17"/>
+    </row>
+    <row r="91" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="44"/>
       <c r="B91" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="16"/>
+      <c r="C91" s="51">
+        <v>42880</v>
+      </c>
+      <c r="D91" s="28"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
-      <c r="H91" s="17"/>
-    </row>
-    <row r="92" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H91" s="16"/>
+      <c r="I91" s="17"/>
+    </row>
+    <row r="92" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="44"/>
       <c r="B92" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="28"/>
-      <c r="D92" s="16"/>
+      <c r="C92" s="51">
+        <v>42881</v>
+      </c>
+      <c r="D92" s="28"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
-      <c r="H92" s="17"/>
-    </row>
-    <row r="93" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="H92" s="16"/>
+      <c r="I92" s="17"/>
+    </row>
+    <row r="93" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="44"/>
       <c r="B93" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="28"/>
-      <c r="D93" s="16"/>
+      <c r="C93" s="51">
+        <v>42882</v>
+      </c>
+      <c r="D93" s="28"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
-      <c r="H93" s="17"/>
-    </row>
-    <row r="94" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H93" s="16"/>
+      <c r="I93" s="17"/>
+    </row>
+    <row r="94" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="45"/>
       <c r="B94" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="30"/>
-      <c r="D94" s="31"/>
+      <c r="C94" s="51">
+        <v>42883</v>
+      </c>
+      <c r="D94" s="30"/>
       <c r="E94" s="31"/>
       <c r="F94" s="31"/>
       <c r="G94" s="31"/>
-      <c r="H94" s="32"/>
-    </row>
-    <row r="95" spans="1:8" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="H94" s="31"/>
+      <c r="I94" s="32"/>
+    </row>
+    <row r="95" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B95" s="3"/>
-      <c r="C95" s="2">
-        <f t="shared" ref="C95:H95" si="0">SUM(C4:C94)</f>
-        <v>15</v>
-      </c>
+      <c r="C95" s="2"/>
       <c r="D95" s="2">
-        <f t="shared" si="0"/>
-        <v>18.5</v>
+        <f t="shared" ref="D95:I95" si="0">SUM(D4:D94)</f>
+        <v>35</v>
       </c>
       <c r="E95" s="2">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>23.5</v>
       </c>
       <c r="F95" s="2">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="H95" s="3">
+        <v>15</v>
+      </c>
+      <c r="H95" s="2">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="I95" s="3">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B96" s="5"/>
-      <c r="C96" s="4">
-        <f>C95/13</f>
-        <v>1.1538461538461537</v>
-      </c>
+      <c r="C96" s="4"/>
       <c r="D96" s="4">
-        <f t="shared" ref="D96:H96" si="1">D95/13</f>
-        <v>1.4230769230769231</v>
+        <f>D95/13</f>
+        <v>2.6923076923076925</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96153846153846156</v>
+        <f t="shared" ref="E96:I96" si="1">E95/13</f>
+        <v>1.8076923076923077</v>
       </c>
       <c r="F96" s="4">
         <f t="shared" si="1"/>
-        <v>0.96153846153846156</v>
+        <v>1.3461538461538463</v>
       </c>
       <c r="G96" s="4">
         <f t="shared" si="1"/>
-        <v>0.96153846153846156</v>
-      </c>
-      <c r="H96" s="5">
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="H96" s="4">
         <f t="shared" si="1"/>
-        <v>0.96153846153846156</v>
+        <v>1.2307692307692308</v>
+      </c>
+      <c r="I96" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3461538461538463</v>
       </c>
     </row>
   </sheetData>
@@ -2124,7 +2487,7 @@
     <mergeCell ref="A88:A94"/>
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A18:A24"/>
-    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="D3:I3"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>

--- a/Hours Log.xlsx
+++ b/Hours Log.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barlc_000\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bardzovski\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13404" windowHeight="8436"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -487,6 +487,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -504,15 +513,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,16 +845,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="14.46484375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -897,7 +897,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -907,28 +907,28 @@
       <c r="C3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="46">
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="43">
         <v>42793</v>
       </c>
       <c r="D4" s="33"/>
@@ -938,12 +938,12 @@
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="47"/>
       <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="43">
         <v>42794</v>
       </c>
       <c r="D5" s="34">
@@ -965,12 +965,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="47"/>
       <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="43">
         <v>42795</v>
       </c>
       <c r="D6" s="34">
@@ -982,12 +982,12 @@
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="47"/>
       <c r="B7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="43">
         <v>42796</v>
       </c>
       <c r="D7" s="34"/>
@@ -997,12 +997,12 @@
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="47"/>
       <c r="B8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="43">
         <v>42797</v>
       </c>
       <c r="D8" s="34">
@@ -1024,12 +1024,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="47"/>
       <c r="B9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="43">
         <v>42798</v>
       </c>
       <c r="D9" s="34"/>
@@ -1039,12 +1039,12 @@
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="50"/>
       <c r="B10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="45">
         <v>42799</v>
       </c>
       <c r="D10" s="37"/>
@@ -1054,14 +1054,14 @@
       <c r="H10" s="38"/>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="49">
         <v>2</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="44">
         <v>42800</v>
       </c>
       <c r="D11" s="40"/>
@@ -1071,12 +1071,12 @@
       <c r="H11" s="41"/>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="47"/>
       <c r="B12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="43">
         <v>42801</v>
       </c>
       <c r="D12" s="34">
@@ -1098,12 +1098,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="47"/>
       <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="43">
         <v>42802</v>
       </c>
       <c r="D13" s="34"/>
@@ -1113,12 +1113,12 @@
       <c r="H13" s="35"/>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="47"/>
       <c r="B14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="43">
         <v>42803</v>
       </c>
       <c r="D14" s="34"/>
@@ -1128,12 +1128,12 @@
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="47"/>
       <c r="B15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="43">
         <v>42804</v>
       </c>
       <c r="D15" s="34">
@@ -1155,27 +1155,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="47"/>
       <c r="B16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="43">
         <v>42805</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="F16" s="35">
+        <v>2</v>
+      </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="50"/>
       <c r="B17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="45">
         <v>42806</v>
       </c>
       <c r="D17" s="37"/>
@@ -1187,14 +1189,14 @@
       <c r="H17" s="38"/>
       <c r="I17" s="39"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="49">
         <v>3</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="44">
         <v>42807</v>
       </c>
       <c r="D18" s="34"/>
@@ -1204,12 +1206,12 @@
       <c r="H18" s="35"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="47"/>
       <c r="B19" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="43">
         <v>42808</v>
       </c>
       <c r="D19" s="34">
@@ -1231,12 +1233,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="47"/>
       <c r="B20" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="43">
         <v>42809</v>
       </c>
       <c r="D20" s="34"/>
@@ -1246,12 +1248,12 @@
       <c r="H20" s="35"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="47"/>
       <c r="B21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="43">
         <v>42810</v>
       </c>
       <c r="D21" s="34"/>
@@ -1261,12 +1263,12 @@
       <c r="H21" s="35"/>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="47"/>
       <c r="B22" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="43">
         <v>42811</v>
       </c>
       <c r="D22" s="34">
@@ -1288,12 +1290,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="47"/>
       <c r="B23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="43">
         <v>42812</v>
       </c>
       <c r="D23" s="28"/>
@@ -1303,29 +1305,31 @@
       <c r="H23" s="16"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="50"/>
       <c r="B24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="45">
         <v>42813</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18">
+        <v>3</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="49">
         <v>4</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="44">
         <v>42814</v>
       </c>
       <c r="D25" s="27">
@@ -1334,17 +1338,19 @@
       <c r="E25" s="20">
         <v>2</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="20">
+        <v>1</v>
+      </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="47"/>
       <c r="B26" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="43">
         <v>42815</v>
       </c>
       <c r="D26" s="28">
@@ -1354,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16">
@@ -1364,12 +1370,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="47"/>
       <c r="B27" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="43">
         <v>42816</v>
       </c>
       <c r="D27" s="28">
@@ -1381,29 +1387,31 @@
       <c r="H27" s="16"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="47"/>
       <c r="B28" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="43">
         <v>42817</v>
       </c>
       <c r="D28" s="28">
         <v>4</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="F28" s="16">
+        <v>2</v>
+      </c>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
+    <row r="29" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="47"/>
       <c r="B29" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="43">
         <v>42818</v>
       </c>
       <c r="D29" s="28">
@@ -1425,12 +1433,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
+    <row r="30" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="47"/>
       <c r="B30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="43">
         <v>42819</v>
       </c>
       <c r="D30" s="28">
@@ -1442,12 +1450,12 @@
       <c r="H30" s="16"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A31" s="50"/>
       <c r="B31" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="45">
         <v>42820</v>
       </c>
       <c r="D31" s="29"/>
@@ -1457,14 +1465,14 @@
       <c r="H31" s="18"/>
       <c r="I31" s="19"/>
     </row>
-    <row r="32" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46">
+    <row r="32" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="49">
         <v>5</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="44">
         <v>42821</v>
       </c>
       <c r="D32" s="27"/>
@@ -1474,12 +1482,12 @@
       <c r="H32" s="20"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
+    <row r="33" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="47"/>
       <c r="B33" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="43">
         <v>42822</v>
       </c>
       <c r="D33" s="28"/>
@@ -1489,12 +1497,12 @@
       <c r="H33" s="16"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
+    <row r="34" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="47"/>
       <c r="B34" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="43">
         <v>42823</v>
       </c>
       <c r="D34" s="28"/>
@@ -1504,12 +1512,12 @@
       <c r="H34" s="16"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
+    <row r="35" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="47"/>
       <c r="B35" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="43">
         <v>42824</v>
       </c>
       <c r="D35" s="28"/>
@@ -1519,12 +1527,12 @@
       <c r="H35" s="16"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="44"/>
+    <row r="36" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="47"/>
       <c r="B36" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="43">
         <v>42825</v>
       </c>
       <c r="D36" s="28"/>
@@ -1534,12 +1542,12 @@
       <c r="H36" s="16"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
+    <row r="37" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="47"/>
       <c r="B37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="51">
+      <c r="C37" s="43">
         <v>42826</v>
       </c>
       <c r="D37" s="28"/>
@@ -1549,12 +1557,12 @@
       <c r="H37" s="16"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
+    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A38" s="50"/>
       <c r="B38" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="45">
         <v>42827</v>
       </c>
       <c r="D38" s="29"/>
@@ -1564,14 +1572,14 @@
       <c r="H38" s="18"/>
       <c r="I38" s="19"/>
     </row>
-    <row r="39" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46">
+    <row r="39" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="49">
         <v>6</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="52">
+      <c r="C39" s="44">
         <v>42828</v>
       </c>
       <c r="D39" s="27"/>
@@ -1581,12 +1589,12 @@
       <c r="H39" s="20"/>
       <c r="I39" s="21"/>
     </row>
-    <row r="40" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
+    <row r="40" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="47"/>
       <c r="B40" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="43">
         <v>42829</v>
       </c>
       <c r="D40" s="28"/>
@@ -1596,12 +1604,12 @@
       <c r="H40" s="16"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
+    <row r="41" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="47"/>
       <c r="B41" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="51">
+      <c r="C41" s="43">
         <v>42830</v>
       </c>
       <c r="D41" s="28"/>
@@ -1611,12 +1619,12 @@
       <c r="H41" s="16"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="44"/>
+    <row r="42" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="47"/>
       <c r="B42" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="43">
         <v>42831</v>
       </c>
       <c r="D42" s="28"/>
@@ -1626,12 +1634,12 @@
       <c r="H42" s="16"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
+    <row r="43" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="47"/>
       <c r="B43" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="43">
         <v>42832</v>
       </c>
       <c r="D43" s="28"/>
@@ -1641,12 +1649,12 @@
       <c r="H43" s="16"/>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
+    <row r="44" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="47"/>
       <c r="B44" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="43">
         <v>42833</v>
       </c>
       <c r="D44" s="28"/>
@@ -1656,12 +1664,12 @@
       <c r="H44" s="16"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
+    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A45" s="50"/>
       <c r="B45" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="53">
+      <c r="C45" s="45">
         <v>42834</v>
       </c>
       <c r="D45" s="29"/>
@@ -1671,14 +1679,14 @@
       <c r="H45" s="18"/>
       <c r="I45" s="19"/>
     </row>
-    <row r="46" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="46">
+    <row r="46" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="49">
         <v>7</v>
       </c>
       <c r="B46" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="52">
+      <c r="C46" s="44">
         <v>42835</v>
       </c>
       <c r="D46" s="27"/>
@@ -1688,12 +1696,12 @@
       <c r="H46" s="20"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
+    <row r="47" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="47"/>
       <c r="B47" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="51">
+      <c r="C47" s="43">
         <v>42836</v>
       </c>
       <c r="D47" s="28"/>
@@ -1703,12 +1711,12 @@
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="44"/>
+    <row r="48" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="47"/>
       <c r="B48" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="43">
         <v>42837</v>
       </c>
       <c r="D48" s="28"/>
@@ -1718,12 +1726,12 @@
       <c r="H48" s="16"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="44"/>
+    <row r="49" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="47"/>
       <c r="B49" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="43">
         <v>42838</v>
       </c>
       <c r="D49" s="28"/>
@@ -1733,12 +1741,12 @@
       <c r="H49" s="16"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
+    <row r="50" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="47"/>
       <c r="B50" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="51">
+      <c r="C50" s="43">
         <v>42839</v>
       </c>
       <c r="D50" s="28"/>
@@ -1748,12 +1756,12 @@
       <c r="H50" s="16"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="44"/>
+    <row r="51" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="47"/>
       <c r="B51" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C51" s="43">
         <v>42840</v>
       </c>
       <c r="D51" s="28"/>
@@ -1763,12 +1771,12 @@
       <c r="H51" s="16"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
+    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A52" s="50"/>
       <c r="B52" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="45">
         <v>42841</v>
       </c>
       <c r="D52" s="29"/>
@@ -1778,14 +1786,14 @@
       <c r="H52" s="18"/>
       <c r="I52" s="19"/>
     </row>
-    <row r="53" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="46">
+    <row r="53" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="49">
         <v>8</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="52">
+      <c r="C53" s="44">
         <v>42842</v>
       </c>
       <c r="D53" s="27"/>
@@ -1795,12 +1803,12 @@
       <c r="H53" s="20"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44"/>
+    <row r="54" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="47"/>
       <c r="B54" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="51">
+      <c r="C54" s="43">
         <v>42843</v>
       </c>
       <c r="D54" s="28"/>
@@ -1810,12 +1818,12 @@
       <c r="H54" s="16"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="44"/>
+    <row r="55" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="47"/>
       <c r="B55" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="43">
         <v>42844</v>
       </c>
       <c r="D55" s="28"/>
@@ -1825,12 +1833,12 @@
       <c r="H55" s="16"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="44"/>
+    <row r="56" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="47"/>
       <c r="B56" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="43">
         <v>42845</v>
       </c>
       <c r="D56" s="28"/>
@@ -1840,12 +1848,12 @@
       <c r="H56" s="16"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="44"/>
+    <row r="57" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="47"/>
       <c r="B57" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="51">
+      <c r="C57" s="43">
         <v>42846</v>
       </c>
       <c r="D57" s="28"/>
@@ -1855,12 +1863,12 @@
       <c r="H57" s="16"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="44"/>
+    <row r="58" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="47"/>
       <c r="B58" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="51">
+      <c r="C58" s="43">
         <v>42847</v>
       </c>
       <c r="D58" s="28"/>
@@ -1870,12 +1878,12 @@
       <c r="H58" s="16"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
+    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A59" s="50"/>
       <c r="B59" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="53">
+      <c r="C59" s="45">
         <v>42848</v>
       </c>
       <c r="D59" s="29"/>
@@ -1885,14 +1893,14 @@
       <c r="H59" s="18"/>
       <c r="I59" s="19"/>
     </row>
-    <row r="60" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="46">
+    <row r="60" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="49">
         <v>9</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="52">
+      <c r="C60" s="44">
         <v>42849</v>
       </c>
       <c r="D60" s="27"/>
@@ -1902,12 +1910,12 @@
       <c r="H60" s="20"/>
       <c r="I60" s="21"/>
     </row>
-    <row r="61" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="44"/>
+    <row r="61" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="47"/>
       <c r="B61" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="51">
+      <c r="C61" s="43">
         <v>42850</v>
       </c>
       <c r="D61" s="28"/>
@@ -1917,12 +1925,12 @@
       <c r="H61" s="16"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="44"/>
+    <row r="62" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="47"/>
       <c r="B62" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="51">
+      <c r="C62" s="43">
         <v>42851</v>
       </c>
       <c r="D62" s="28"/>
@@ -1932,12 +1940,12 @@
       <c r="H62" s="16"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="44"/>
+    <row r="63" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="47"/>
       <c r="B63" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="51">
+      <c r="C63" s="43">
         <v>42852</v>
       </c>
       <c r="D63" s="28"/>
@@ -1947,12 +1955,12 @@
       <c r="H63" s="16"/>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="44"/>
+    <row r="64" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="47"/>
       <c r="B64" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="51">
+      <c r="C64" s="43">
         <v>42853</v>
       </c>
       <c r="D64" s="28"/>
@@ -1962,12 +1970,12 @@
       <c r="H64" s="16"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44"/>
+    <row r="65" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="47"/>
       <c r="B65" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="51">
+      <c r="C65" s="43">
         <v>42854</v>
       </c>
       <c r="D65" s="28"/>
@@ -1977,12 +1985,12 @@
       <c r="H65" s="16"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
+    <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A66" s="50"/>
       <c r="B66" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="53">
+      <c r="C66" s="45">
         <v>42855</v>
       </c>
       <c r="D66" s="29"/>
@@ -1992,14 +2000,14 @@
       <c r="H66" s="18"/>
       <c r="I66" s="19"/>
     </row>
-    <row r="67" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="46">
+    <row r="67" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="49">
         <v>10</v>
       </c>
       <c r="B67" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="52">
+      <c r="C67" s="44">
         <v>42856</v>
       </c>
       <c r="D67" s="27"/>
@@ -2009,12 +2017,12 @@
       <c r="H67" s="20"/>
       <c r="I67" s="21"/>
     </row>
-    <row r="68" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="44"/>
+    <row r="68" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="47"/>
       <c r="B68" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="51">
+      <c r="C68" s="43">
         <v>42857</v>
       </c>
       <c r="D68" s="28"/>
@@ -2024,12 +2032,12 @@
       <c r="H68" s="16"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="44"/>
+    <row r="69" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="47"/>
       <c r="B69" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="51">
+      <c r="C69" s="43">
         <v>42858</v>
       </c>
       <c r="D69" s="28"/>
@@ -2039,12 +2047,12 @@
       <c r="H69" s="16"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="44"/>
+    <row r="70" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="47"/>
       <c r="B70" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="51">
+      <c r="C70" s="43">
         <v>42859</v>
       </c>
       <c r="D70" s="28"/>
@@ -2054,12 +2062,12 @@
       <c r="H70" s="16"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="44"/>
+    <row r="71" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="47"/>
       <c r="B71" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="51">
+      <c r="C71" s="43">
         <v>42860</v>
       </c>
       <c r="D71" s="28"/>
@@ -2069,12 +2077,12 @@
       <c r="H71" s="16"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="44"/>
+    <row r="72" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="47"/>
       <c r="B72" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="51">
+      <c r="C72" s="43">
         <v>42861</v>
       </c>
       <c r="D72" s="28"/>
@@ -2084,12 +2092,12 @@
       <c r="H72" s="16"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="47"/>
+    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A73" s="50"/>
       <c r="B73" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="53">
+      <c r="C73" s="45">
         <v>42862</v>
       </c>
       <c r="D73" s="29"/>
@@ -2099,14 +2107,14 @@
       <c r="H73" s="18"/>
       <c r="I73" s="19"/>
     </row>
-    <row r="74" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="46">
+    <row r="74" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="49">
         <v>11</v>
       </c>
       <c r="B74" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="52">
+      <c r="C74" s="44">
         <v>42863</v>
       </c>
       <c r="D74" s="27"/>
@@ -2116,12 +2124,12 @@
       <c r="H74" s="20"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="44"/>
+    <row r="75" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="47"/>
       <c r="B75" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="51">
+      <c r="C75" s="43">
         <v>42864</v>
       </c>
       <c r="D75" s="28"/>
@@ -2131,12 +2139,12 @@
       <c r="H75" s="16"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="44"/>
+    <row r="76" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="47"/>
       <c r="B76" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="51">
+      <c r="C76" s="43">
         <v>42865</v>
       </c>
       <c r="D76" s="28"/>
@@ -2146,12 +2154,12 @@
       <c r="H76" s="16"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="44"/>
+    <row r="77" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="47"/>
       <c r="B77" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="51">
+      <c r="C77" s="43">
         <v>42866</v>
       </c>
       <c r="D77" s="28"/>
@@ -2161,12 +2169,12 @@
       <c r="H77" s="16"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="44"/>
+    <row r="78" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="47"/>
       <c r="B78" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="51">
+      <c r="C78" s="43">
         <v>42867</v>
       </c>
       <c r="D78" s="28"/>
@@ -2176,12 +2184,12 @@
       <c r="H78" s="16"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="44"/>
+    <row r="79" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="47"/>
       <c r="B79" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="51">
+      <c r="C79" s="43">
         <v>42868</v>
       </c>
       <c r="D79" s="28"/>
@@ -2191,12 +2199,12 @@
       <c r="H79" s="16"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
+    <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A80" s="50"/>
       <c r="B80" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="53">
+      <c r="C80" s="45">
         <v>42869</v>
       </c>
       <c r="D80" s="29"/>
@@ -2206,14 +2214,14 @@
       <c r="H80" s="18"/>
       <c r="I80" s="19"/>
     </row>
-    <row r="81" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="46">
+    <row r="81" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="49">
         <v>12</v>
       </c>
       <c r="B81" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="52">
+      <c r="C81" s="44">
         <v>42870</v>
       </c>
       <c r="D81" s="27"/>
@@ -2223,12 +2231,12 @@
       <c r="H81" s="20"/>
       <c r="I81" s="21"/>
     </row>
-    <row r="82" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="44"/>
+    <row r="82" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="47"/>
       <c r="B82" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="51">
+      <c r="C82" s="43">
         <v>42871</v>
       </c>
       <c r="D82" s="28"/>
@@ -2238,12 +2246,12 @@
       <c r="H82" s="16"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="44"/>
+    <row r="83" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="47"/>
       <c r="B83" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="51">
+      <c r="C83" s="43">
         <v>42872</v>
       </c>
       <c r="D83" s="28"/>
@@ -2253,12 +2261,12 @@
       <c r="H83" s="16"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="44"/>
+    <row r="84" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="47"/>
       <c r="B84" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="51">
+      <c r="C84" s="43">
         <v>42873</v>
       </c>
       <c r="D84" s="28"/>
@@ -2268,12 +2276,12 @@
       <c r="H84" s="16"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="44"/>
+    <row r="85" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="47"/>
       <c r="B85" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="51">
+      <c r="C85" s="43">
         <v>42874</v>
       </c>
       <c r="D85" s="28"/>
@@ -2283,12 +2291,12 @@
       <c r="H85" s="16"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="44"/>
+    <row r="86" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="47"/>
       <c r="B86" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="51">
+      <c r="C86" s="43">
         <v>42875</v>
       </c>
       <c r="D86" s="28"/>
@@ -2298,12 +2306,12 @@
       <c r="H86" s="16"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="47"/>
+    <row r="87" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A87" s="50"/>
       <c r="B87" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C87" s="53">
+      <c r="C87" s="45">
         <v>42876</v>
       </c>
       <c r="D87" s="29"/>
@@ -2313,14 +2321,14 @@
       <c r="H87" s="18"/>
       <c r="I87" s="19"/>
     </row>
-    <row r="88" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="43">
+    <row r="88" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="46">
         <v>13</v>
       </c>
       <c r="B88" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="52">
+      <c r="C88" s="44">
         <v>42877</v>
       </c>
       <c r="D88" s="28"/>
@@ -2330,12 +2338,12 @@
       <c r="H88" s="16"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="44"/>
+    <row r="89" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="47"/>
       <c r="B89" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="51">
+      <c r="C89" s="43">
         <v>42878</v>
       </c>
       <c r="D89" s="28"/>
@@ -2345,12 +2353,12 @@
       <c r="H89" s="16"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="44"/>
+    <row r="90" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="47"/>
       <c r="B90" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="51">
+      <c r="C90" s="43">
         <v>42879</v>
       </c>
       <c r="D90" s="28"/>
@@ -2360,12 +2368,12 @@
       <c r="H90" s="16"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="44"/>
+    <row r="91" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="47"/>
       <c r="B91" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="51">
+      <c r="C91" s="43">
         <v>42880</v>
       </c>
       <c r="D91" s="28"/>
@@ -2375,12 +2383,12 @@
       <c r="H91" s="16"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="44"/>
+    <row r="92" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="47"/>
       <c r="B92" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="51">
+      <c r="C92" s="43">
         <v>42881</v>
       </c>
       <c r="D92" s="28"/>
@@ -2390,12 +2398,12 @@
       <c r="H92" s="16"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="44"/>
+    <row r="93" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="47"/>
       <c r="B93" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="51">
+      <c r="C93" s="43">
         <v>42882</v>
       </c>
       <c r="D93" s="28"/>
@@ -2405,12 +2413,12 @@
       <c r="H93" s="16"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="45"/>
+    <row r="94" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="48"/>
       <c r="B94" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="51">
+      <c r="C94" s="43">
         <v>42883</v>
       </c>
       <c r="D94" s="30"/>
@@ -2420,7 +2428,7 @@
       <c r="H94" s="31"/>
       <c r="I94" s="32"/>
     </row>
-    <row r="95" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A95" s="9" t="s">
         <v>11</v>
       </c>
@@ -2436,7 +2444,7 @@
       </c>
       <c r="F95" s="2">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>28.5</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" si="0"/>
@@ -2451,7 +2459,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="11" t="s">
         <v>19</v>
       </c>
@@ -2467,7 +2475,7 @@
       </c>
       <c r="F96" s="4">
         <f t="shared" si="1"/>
-        <v>1.3461538461538463</v>
+        <v>2.1923076923076925</v>
       </c>
       <c r="G96" s="4">
         <f t="shared" si="1"/>

--- a/Hours Log.xlsx
+++ b/Hours Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bardzovski\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armsj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="16">
         <v>4</v>
@@ -1398,7 +1398,9 @@
       <c r="D28" s="28">
         <v>4</v>
       </c>
-      <c r="E28" s="16"/>
+      <c r="E28" s="16">
+        <v>2</v>
+      </c>
       <c r="F28" s="16">
         <v>2</v>
       </c>
@@ -1459,7 +1461,9 @@
         <v>42820</v>
       </c>
       <c r="D31" s="29"/>
-      <c r="E31" s="18"/>
+      <c r="E31" s="18">
+        <v>1</v>
+      </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -1476,7 +1480,9 @@
         <v>42821</v>
       </c>
       <c r="D32" s="27"/>
-      <c r="E32" s="20"/>
+      <c r="E32" s="20">
+        <v>2</v>
+      </c>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -2440,7 +2446,7 @@
       </c>
       <c r="E95" s="2">
         <f t="shared" si="0"/>
-        <v>23.5</v>
+        <v>30.5</v>
       </c>
       <c r="F95" s="2">
         <f t="shared" si="0"/>
@@ -2471,7 +2477,7 @@
       </c>
       <c r="E96" s="4">
         <f t="shared" ref="E96:I96" si="1">E95/13</f>
-        <v>1.8076923076923077</v>
+        <v>2.3461538461538463</v>
       </c>
       <c r="F96" s="4">
         <f t="shared" si="1"/>

--- a/Hours Log.xlsx
+++ b/Hours Log.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armsj\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -87,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -835,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -845,16 +840,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.46484375" style="12"/>
+    <col min="1" max="1" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -869,7 +864,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -897,7 +892,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -921,7 +916,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46">
         <v>1</v>
       </c>
@@ -938,7 +933,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="22" t="s">
         <v>6</v>
@@ -965,7 +960,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="22" t="s">
         <v>7</v>
@@ -982,7 +977,7 @@
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="22" t="s">
         <v>8</v>
@@ -997,7 +992,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47"/>
       <c r="B8" s="22" t="s">
         <v>18</v>
@@ -1024,7 +1019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" s="22" t="s">
         <v>9</v>
@@ -1039,7 +1034,7 @@
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="23" t="s">
         <v>10</v>
@@ -1054,7 +1049,7 @@
       <c r="H10" s="38"/>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49">
         <v>2</v>
       </c>
@@ -1071,7 +1066,7 @@
       <c r="H11" s="41"/>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="22" t="s">
         <v>6</v>
@@ -1098,7 +1093,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="22" t="s">
         <v>7</v>
@@ -1113,7 +1108,7 @@
       <c r="H13" s="35"/>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="22" t="s">
         <v>8</v>
@@ -1128,7 +1123,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
       <c r="B15" s="22" t="s">
         <v>18</v>
@@ -1155,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47"/>
       <c r="B16" s="22" t="s">
         <v>9</v>
@@ -1172,7 +1167,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="B17" s="23" t="s">
         <v>10</v>
@@ -1189,7 +1184,7 @@
       <c r="H17" s="38"/>
       <c r="I17" s="39"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49">
         <v>3</v>
       </c>
@@ -1206,7 +1201,7 @@
       <c r="H18" s="35"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="22" t="s">
         <v>6</v>
@@ -1233,7 +1228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="22" t="s">
         <v>7</v>
@@ -1248,7 +1243,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="22" t="s">
         <v>8</v>
@@ -1263,7 +1258,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
       <c r="B22" s="22" t="s">
         <v>18</v>
@@ -1290,7 +1285,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
       <c r="B23" s="22" t="s">
         <v>9</v>
@@ -1305,7 +1300,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50"/>
       <c r="B24" s="23" t="s">
         <v>10</v>
@@ -1318,11 +1313,13 @@
       <c r="F24" s="18">
         <v>3</v>
       </c>
-      <c r="G24" s="18"/>
+      <c r="G24" s="18">
+        <v>2</v>
+      </c>
       <c r="H24" s="18"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49">
         <v>4</v>
       </c>
@@ -1341,11 +1338,13 @@
       <c r="F25" s="20">
         <v>1</v>
       </c>
-      <c r="G25" s="20"/>
+      <c r="G25" s="20">
+        <v>4</v>
+      </c>
       <c r="H25" s="20"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47"/>
       <c r="B26" s="22" t="s">
         <v>6</v>
@@ -1370,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
       <c r="B27" s="22" t="s">
         <v>7</v>
@@ -1387,7 +1386,7 @@
       <c r="H27" s="16"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
       <c r="B28" s="22" t="s">
         <v>8</v>
@@ -1404,11 +1403,13 @@
       <c r="F28" s="16">
         <v>2</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="16">
+        <v>2</v>
+      </c>
       <c r="H28" s="16"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
       <c r="B29" s="22" t="s">
         <v>18</v>
@@ -1435,7 +1436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
       <c r="B30" s="22" t="s">
         <v>9</v>
@@ -1452,7 +1453,7 @@
       <c r="H30" s="16"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="50"/>
       <c r="B31" s="23" t="s">
         <v>10</v>
@@ -1465,11 +1466,13 @@
         <v>1</v>
       </c>
       <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="G31" s="18">
+        <v>2</v>
+      </c>
       <c r="H31" s="18"/>
       <c r="I31" s="19"/>
     </row>
-    <row r="32" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="49">
         <v>5</v>
       </c>
@@ -1484,11 +1487,13 @@
         <v>2</v>
       </c>
       <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
+      <c r="G32" s="20">
+        <v>2</v>
+      </c>
       <c r="H32" s="20"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47"/>
       <c r="B33" s="22" t="s">
         <v>6</v>
@@ -1503,7 +1508,7 @@
       <c r="H33" s="16"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47"/>
       <c r="B34" s="22" t="s">
         <v>7</v>
@@ -1518,7 +1523,7 @@
       <c r="H34" s="16"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47"/>
       <c r="B35" s="22" t="s">
         <v>8</v>
@@ -1533,7 +1538,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47"/>
       <c r="B36" s="22" t="s">
         <v>18</v>
@@ -1548,7 +1553,7 @@
       <c r="H36" s="16"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47"/>
       <c r="B37" s="22" t="s">
         <v>9</v>
@@ -1563,7 +1568,7 @@
       <c r="H37" s="16"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="50"/>
       <c r="B38" s="23" t="s">
         <v>10</v>
@@ -1578,7 +1583,7 @@
       <c r="H38" s="18"/>
       <c r="I38" s="19"/>
     </row>
-    <row r="39" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="49">
         <v>6</v>
       </c>
@@ -1595,7 +1600,7 @@
       <c r="H39" s="20"/>
       <c r="I39" s="21"/>
     </row>
-    <row r="40" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
       <c r="B40" s="22" t="s">
         <v>6</v>
@@ -1610,7 +1615,7 @@
       <c r="H40" s="16"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47"/>
       <c r="B41" s="22" t="s">
         <v>7</v>
@@ -1625,7 +1630,7 @@
       <c r="H41" s="16"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47"/>
       <c r="B42" s="22" t="s">
         <v>8</v>
@@ -1640,7 +1645,7 @@
       <c r="H42" s="16"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47"/>
       <c r="B43" s="22" t="s">
         <v>18</v>
@@ -1655,7 +1660,7 @@
       <c r="H43" s="16"/>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
       <c r="B44" s="22" t="s">
         <v>9</v>
@@ -1670,7 +1675,7 @@
       <c r="H44" s="16"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="50"/>
       <c r="B45" s="23" t="s">
         <v>10</v>
@@ -1685,7 +1690,7 @@
       <c r="H45" s="18"/>
       <c r="I45" s="19"/>
     </row>
-    <row r="46" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="49">
         <v>7</v>
       </c>
@@ -1702,7 +1707,7 @@
       <c r="H46" s="20"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47"/>
       <c r="B47" s="22" t="s">
         <v>6</v>
@@ -1717,7 +1722,7 @@
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
       <c r="B48" s="22" t="s">
         <v>7</v>
@@ -1732,7 +1737,7 @@
       <c r="H48" s="16"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
       <c r="B49" s="22" t="s">
         <v>8</v>
@@ -1747,7 +1752,7 @@
       <c r="H49" s="16"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47"/>
       <c r="B50" s="22" t="s">
         <v>18</v>
@@ -1762,7 +1767,7 @@
       <c r="H50" s="16"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47"/>
       <c r="B51" s="22" t="s">
         <v>9</v>
@@ -1777,7 +1782,7 @@
       <c r="H51" s="16"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="50"/>
       <c r="B52" s="23" t="s">
         <v>10</v>
@@ -1792,7 +1797,7 @@
       <c r="H52" s="18"/>
       <c r="I52" s="19"/>
     </row>
-    <row r="53" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="49">
         <v>8</v>
       </c>
@@ -1809,7 +1814,7 @@
       <c r="H53" s="20"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47"/>
       <c r="B54" s="22" t="s">
         <v>6</v>
@@ -1824,7 +1829,7 @@
       <c r="H54" s="16"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47"/>
       <c r="B55" s="22" t="s">
         <v>7</v>
@@ -1839,7 +1844,7 @@
       <c r="H55" s="16"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
       <c r="B56" s="22" t="s">
         <v>8</v>
@@ -1854,7 +1859,7 @@
       <c r="H56" s="16"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47"/>
       <c r="B57" s="22" t="s">
         <v>18</v>
@@ -1869,7 +1874,7 @@
       <c r="H57" s="16"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47"/>
       <c r="B58" s="22" t="s">
         <v>9</v>
@@ -1884,7 +1889,7 @@
       <c r="H58" s="16"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="50"/>
       <c r="B59" s="23" t="s">
         <v>10</v>
@@ -1899,7 +1904,7 @@
       <c r="H59" s="18"/>
       <c r="I59" s="19"/>
     </row>
-    <row r="60" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="49">
         <v>9</v>
       </c>
@@ -1916,7 +1921,7 @@
       <c r="H60" s="20"/>
       <c r="I60" s="21"/>
     </row>
-    <row r="61" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47"/>
       <c r="B61" s="22" t="s">
         <v>6</v>
@@ -1931,7 +1936,7 @@
       <c r="H61" s="16"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="47"/>
       <c r="B62" s="22" t="s">
         <v>7</v>
@@ -1946,7 +1951,7 @@
       <c r="H62" s="16"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47"/>
       <c r="B63" s="22" t="s">
         <v>8</v>
@@ -1961,7 +1966,7 @@
       <c r="H63" s="16"/>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47"/>
       <c r="B64" s="22" t="s">
         <v>18</v>
@@ -1976,7 +1981,7 @@
       <c r="H64" s="16"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47"/>
       <c r="B65" s="22" t="s">
         <v>9</v>
@@ -1991,7 +1996,7 @@
       <c r="H65" s="16"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="50"/>
       <c r="B66" s="23" t="s">
         <v>10</v>
@@ -2006,7 +2011,7 @@
       <c r="H66" s="18"/>
       <c r="I66" s="19"/>
     </row>
-    <row r="67" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="49">
         <v>10</v>
       </c>
@@ -2023,7 +2028,7 @@
       <c r="H67" s="20"/>
       <c r="I67" s="21"/>
     </row>
-    <row r="68" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47"/>
       <c r="B68" s="22" t="s">
         <v>6</v>
@@ -2038,7 +2043,7 @@
       <c r="H68" s="16"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47"/>
       <c r="B69" s="22" t="s">
         <v>7</v>
@@ -2053,7 +2058,7 @@
       <c r="H69" s="16"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
       <c r="B70" s="22" t="s">
         <v>8</v>
@@ -2068,7 +2073,7 @@
       <c r="H70" s="16"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="47"/>
       <c r="B71" s="22" t="s">
         <v>18</v>
@@ -2083,7 +2088,7 @@
       <c r="H71" s="16"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
       <c r="B72" s="22" t="s">
         <v>9</v>
@@ -2098,7 +2103,7 @@
       <c r="H72" s="16"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="50"/>
       <c r="B73" s="23" t="s">
         <v>10</v>
@@ -2113,7 +2118,7 @@
       <c r="H73" s="18"/>
       <c r="I73" s="19"/>
     </row>
-    <row r="74" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="49">
         <v>11</v>
       </c>
@@ -2130,7 +2135,7 @@
       <c r="H74" s="20"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
       <c r="B75" s="22" t="s">
         <v>6</v>
@@ -2145,7 +2150,7 @@
       <c r="H75" s="16"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
       <c r="B76" s="22" t="s">
         <v>7</v>
@@ -2160,7 +2165,7 @@
       <c r="H76" s="16"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
       <c r="B77" s="22" t="s">
         <v>8</v>
@@ -2175,7 +2180,7 @@
       <c r="H77" s="16"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
       <c r="B78" s="22" t="s">
         <v>18</v>
@@ -2190,7 +2195,7 @@
       <c r="H78" s="16"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
       <c r="B79" s="22" t="s">
         <v>9</v>
@@ -2205,7 +2210,7 @@
       <c r="H79" s="16"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="50"/>
       <c r="B80" s="23" t="s">
         <v>10</v>
@@ -2220,7 +2225,7 @@
       <c r="H80" s="18"/>
       <c r="I80" s="19"/>
     </row>
-    <row r="81" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49">
         <v>12</v>
       </c>
@@ -2237,7 +2242,7 @@
       <c r="H81" s="20"/>
       <c r="I81" s="21"/>
     </row>
-    <row r="82" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47"/>
       <c r="B82" s="22" t="s">
         <v>6</v>
@@ -2252,7 +2257,7 @@
       <c r="H82" s="16"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="47"/>
       <c r="B83" s="22" t="s">
         <v>7</v>
@@ -2267,7 +2272,7 @@
       <c r="H83" s="16"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="47"/>
       <c r="B84" s="22" t="s">
         <v>8</v>
@@ -2282,7 +2287,7 @@
       <c r="H84" s="16"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="47"/>
       <c r="B85" s="22" t="s">
         <v>18</v>
@@ -2297,7 +2302,7 @@
       <c r="H85" s="16"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47"/>
       <c r="B86" s="22" t="s">
         <v>9</v>
@@ -2312,7 +2317,7 @@
       <c r="H86" s="16"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="50"/>
       <c r="B87" s="23" t="s">
         <v>10</v>
@@ -2327,7 +2332,7 @@
       <c r="H87" s="18"/>
       <c r="I87" s="19"/>
     </row>
-    <row r="88" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="46">
         <v>13</v>
       </c>
@@ -2344,7 +2349,7 @@
       <c r="H88" s="16"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
       <c r="B89" s="22" t="s">
         <v>6</v>
@@ -2359,7 +2364,7 @@
       <c r="H89" s="16"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="47"/>
       <c r="B90" s="22" t="s">
         <v>7</v>
@@ -2374,7 +2379,7 @@
       <c r="H90" s="16"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47"/>
       <c r="B91" s="22" t="s">
         <v>8</v>
@@ -2389,7 +2394,7 @@
       <c r="H91" s="16"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
       <c r="B92" s="22" t="s">
         <v>18</v>
@@ -2404,7 +2409,7 @@
       <c r="H92" s="16"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47"/>
       <c r="B93" s="22" t="s">
         <v>9</v>
@@ -2419,7 +2424,7 @@
       <c r="H93" s="16"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="48"/>
       <c r="B94" s="26" t="s">
         <v>10</v>
@@ -2434,7 +2439,7 @@
       <c r="H94" s="31"/>
       <c r="I94" s="32"/>
     </row>
-    <row r="95" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>11</v>
       </c>
@@ -2454,7 +2459,7 @@
       </c>
       <c r="G95" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H95" s="2">
         <f t="shared" si="0"/>
@@ -2465,7 +2470,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>19</v>
       </c>
@@ -2485,7 +2490,7 @@
       </c>
       <c r="G96" s="4">
         <f t="shared" si="1"/>
-        <v>1.1538461538461537</v>
+        <v>2.0769230769230771</v>
       </c>
       <c r="H96" s="4">
         <f t="shared" si="1"/>

--- a/Hours Log.xlsx
+++ b/Hours Log.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barlc_000\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13404" windowHeight="8436"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -82,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -830,7 +835,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -841,15 +846,15 @@
   <dimension ref="A1:N96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="12"/>
+    <col min="1" max="1" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -864,7 +869,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -892,7 +897,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -916,7 +921,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46">
         <v>1</v>
       </c>
@@ -933,7 +938,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
       <c r="B5" s="22" t="s">
         <v>6</v>
@@ -960,7 +965,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
       <c r="B6" s="22" t="s">
         <v>7</v>
@@ -977,7 +982,7 @@
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47"/>
       <c r="B7" s="22" t="s">
         <v>8</v>
@@ -992,7 +997,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47"/>
       <c r="B8" s="22" t="s">
         <v>18</v>
@@ -1019,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47"/>
       <c r="B9" s="22" t="s">
         <v>9</v>
@@ -1034,7 +1039,7 @@
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
       <c r="B10" s="23" t="s">
         <v>10</v>
@@ -1049,7 +1054,7 @@
       <c r="H10" s="38"/>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="49">
         <v>2</v>
       </c>
@@ -1066,7 +1071,7 @@
       <c r="H11" s="41"/>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="22" t="s">
         <v>6</v>
@@ -1093,7 +1098,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
       <c r="B13" s="22" t="s">
         <v>7</v>
@@ -1108,7 +1113,7 @@
       <c r="H13" s="35"/>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="22" t="s">
         <v>8</v>
@@ -1123,7 +1128,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
       <c r="B15" s="22" t="s">
         <v>18</v>
@@ -1150,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
       <c r="B16" s="22" t="s">
         <v>9</v>
@@ -1167,7 +1172,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50"/>
       <c r="B17" s="23" t="s">
         <v>10</v>
@@ -1184,7 +1189,7 @@
       <c r="H17" s="38"/>
       <c r="I17" s="39"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="49">
         <v>3</v>
       </c>
@@ -1201,7 +1206,7 @@
       <c r="H18" s="35"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
       <c r="B19" s="22" t="s">
         <v>6</v>
@@ -1228,7 +1233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47"/>
       <c r="B20" s="22" t="s">
         <v>7</v>
@@ -1243,7 +1248,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="47"/>
       <c r="B21" s="22" t="s">
         <v>8</v>
@@ -1258,7 +1263,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47"/>
       <c r="B22" s="22" t="s">
         <v>18</v>
@@ -1285,7 +1290,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="47"/>
       <c r="B23" s="22" t="s">
         <v>9</v>
@@ -1300,7 +1305,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50"/>
       <c r="B24" s="23" t="s">
         <v>10</v>
@@ -1319,7 +1324,7 @@
       <c r="H24" s="18"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="49">
         <v>4</v>
       </c>
@@ -1344,7 +1349,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="47"/>
       <c r="B26" s="22" t="s">
         <v>6</v>
@@ -1369,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47"/>
       <c r="B27" s="22" t="s">
         <v>7</v>
@@ -1386,7 +1391,7 @@
       <c r="H27" s="16"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="47"/>
       <c r="B28" s="22" t="s">
         <v>8</v>
@@ -1409,7 +1414,7 @@
       <c r="H28" s="16"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47"/>
       <c r="B29" s="22" t="s">
         <v>18</v>
@@ -1436,7 +1441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="47"/>
       <c r="B30" s="22" t="s">
         <v>9</v>
@@ -1453,7 +1458,7 @@
       <c r="H30" s="16"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="50"/>
       <c r="B31" s="23" t="s">
         <v>10</v>
@@ -1472,7 +1477,7 @@
       <c r="H31" s="18"/>
       <c r="I31" s="19"/>
     </row>
-    <row r="32" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="49">
         <v>5</v>
       </c>
@@ -1482,7 +1487,9 @@
       <c r="C32" s="44">
         <v>42821</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="27">
+        <v>1</v>
+      </c>
       <c r="E32" s="20">
         <v>2</v>
       </c>
@@ -1493,7 +1500,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="47"/>
       <c r="B33" s="22" t="s">
         <v>6</v>
@@ -1501,14 +1508,16 @@
       <c r="C33" s="43">
         <v>42822</v>
       </c>
-      <c r="D33" s="28"/>
+      <c r="D33" s="28">
+        <v>3</v>
+      </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="22" t="s">
         <v>7</v>
@@ -1523,7 +1532,7 @@
       <c r="H34" s="16"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="47"/>
       <c r="B35" s="22" t="s">
         <v>8</v>
@@ -1531,14 +1540,16 @@
       <c r="C35" s="43">
         <v>42824</v>
       </c>
-      <c r="D35" s="28"/>
+      <c r="D35" s="28">
+        <v>2</v>
+      </c>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="47"/>
       <c r="B36" s="22" t="s">
         <v>18</v>
@@ -1553,7 +1564,7 @@
       <c r="H36" s="16"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47"/>
       <c r="B37" s="22" t="s">
         <v>9</v>
@@ -1568,7 +1579,7 @@
       <c r="H37" s="16"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="50"/>
       <c r="B38" s="23" t="s">
         <v>10</v>
@@ -1583,7 +1594,7 @@
       <c r="H38" s="18"/>
       <c r="I38" s="19"/>
     </row>
-    <row r="39" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="49">
         <v>6</v>
       </c>
@@ -1600,7 +1611,7 @@
       <c r="H39" s="20"/>
       <c r="I39" s="21"/>
     </row>
-    <row r="40" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47"/>
       <c r="B40" s="22" t="s">
         <v>6</v>
@@ -1615,7 +1626,7 @@
       <c r="H40" s="16"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="47"/>
       <c r="B41" s="22" t="s">
         <v>7</v>
@@ -1630,7 +1641,7 @@
       <c r="H41" s="16"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="47"/>
       <c r="B42" s="22" t="s">
         <v>8</v>
@@ -1645,7 +1656,7 @@
       <c r="H42" s="16"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="47"/>
       <c r="B43" s="22" t="s">
         <v>18</v>
@@ -1660,7 +1671,7 @@
       <c r="H43" s="16"/>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47"/>
       <c r="B44" s="22" t="s">
         <v>9</v>
@@ -1675,7 +1686,7 @@
       <c r="H44" s="16"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
       <c r="B45" s="23" t="s">
         <v>10</v>
@@ -1690,7 +1701,7 @@
       <c r="H45" s="18"/>
       <c r="I45" s="19"/>
     </row>
-    <row r="46" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="49">
         <v>7</v>
       </c>
@@ -1707,7 +1718,7 @@
       <c r="H46" s="20"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="47"/>
       <c r="B47" s="22" t="s">
         <v>6</v>
@@ -1722,7 +1733,7 @@
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="47"/>
       <c r="B48" s="22" t="s">
         <v>7</v>
@@ -1737,7 +1748,7 @@
       <c r="H48" s="16"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="47"/>
       <c r="B49" s="22" t="s">
         <v>8</v>
@@ -1752,7 +1763,7 @@
       <c r="H49" s="16"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="47"/>
       <c r="B50" s="22" t="s">
         <v>18</v>
@@ -1767,7 +1778,7 @@
       <c r="H50" s="16"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="47"/>
       <c r="B51" s="22" t="s">
         <v>9</v>
@@ -1782,7 +1793,7 @@
       <c r="H51" s="16"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="50"/>
       <c r="B52" s="23" t="s">
         <v>10</v>
@@ -1797,7 +1808,7 @@
       <c r="H52" s="18"/>
       <c r="I52" s="19"/>
     </row>
-    <row r="53" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="49">
         <v>8</v>
       </c>
@@ -1814,7 +1825,7 @@
       <c r="H53" s="20"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="47"/>
       <c r="B54" s="22" t="s">
         <v>6</v>
@@ -1829,7 +1840,7 @@
       <c r="H54" s="16"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="47"/>
       <c r="B55" s="22" t="s">
         <v>7</v>
@@ -1844,7 +1855,7 @@
       <c r="H55" s="16"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="47"/>
       <c r="B56" s="22" t="s">
         <v>8</v>
@@ -1859,7 +1870,7 @@
       <c r="H56" s="16"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="47"/>
       <c r="B57" s="22" t="s">
         <v>18</v>
@@ -1874,7 +1885,7 @@
       <c r="H57" s="16"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="47"/>
       <c r="B58" s="22" t="s">
         <v>9</v>
@@ -1889,7 +1900,7 @@
       <c r="H58" s="16"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="50"/>
       <c r="B59" s="23" t="s">
         <v>10</v>
@@ -1904,7 +1915,7 @@
       <c r="H59" s="18"/>
       <c r="I59" s="19"/>
     </row>
-    <row r="60" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="49">
         <v>9</v>
       </c>
@@ -1921,7 +1932,7 @@
       <c r="H60" s="20"/>
       <c r="I60" s="21"/>
     </row>
-    <row r="61" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="47"/>
       <c r="B61" s="22" t="s">
         <v>6</v>
@@ -1936,7 +1947,7 @@
       <c r="H61" s="16"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="47"/>
       <c r="B62" s="22" t="s">
         <v>7</v>
@@ -1951,7 +1962,7 @@
       <c r="H62" s="16"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="47"/>
       <c r="B63" s="22" t="s">
         <v>8</v>
@@ -1966,7 +1977,7 @@
       <c r="H63" s="16"/>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="47"/>
       <c r="B64" s="22" t="s">
         <v>18</v>
@@ -1981,7 +1992,7 @@
       <c r="H64" s="16"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="47"/>
       <c r="B65" s="22" t="s">
         <v>9</v>
@@ -1996,7 +2007,7 @@
       <c r="H65" s="16"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="50"/>
       <c r="B66" s="23" t="s">
         <v>10</v>
@@ -2011,7 +2022,7 @@
       <c r="H66" s="18"/>
       <c r="I66" s="19"/>
     </row>
-    <row r="67" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="49">
         <v>10</v>
       </c>
@@ -2028,7 +2039,7 @@
       <c r="H67" s="20"/>
       <c r="I67" s="21"/>
     </row>
-    <row r="68" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="47"/>
       <c r="B68" s="22" t="s">
         <v>6</v>
@@ -2043,7 +2054,7 @@
       <c r="H68" s="16"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="47"/>
       <c r="B69" s="22" t="s">
         <v>7</v>
@@ -2058,7 +2069,7 @@
       <c r="H69" s="16"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="47"/>
       <c r="B70" s="22" t="s">
         <v>8</v>
@@ -2073,7 +2084,7 @@
       <c r="H70" s="16"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="47"/>
       <c r="B71" s="22" t="s">
         <v>18</v>
@@ -2088,7 +2099,7 @@
       <c r="H71" s="16"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="47"/>
       <c r="B72" s="22" t="s">
         <v>9</v>
@@ -2103,7 +2114,7 @@
       <c r="H72" s="16"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="50"/>
       <c r="B73" s="23" t="s">
         <v>10</v>
@@ -2118,7 +2129,7 @@
       <c r="H73" s="18"/>
       <c r="I73" s="19"/>
     </row>
-    <row r="74" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="49">
         <v>11</v>
       </c>
@@ -2135,7 +2146,7 @@
       <c r="H74" s="20"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="47"/>
       <c r="B75" s="22" t="s">
         <v>6</v>
@@ -2150,7 +2161,7 @@
       <c r="H75" s="16"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="47"/>
       <c r="B76" s="22" t="s">
         <v>7</v>
@@ -2165,7 +2176,7 @@
       <c r="H76" s="16"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="47"/>
       <c r="B77" s="22" t="s">
         <v>8</v>
@@ -2180,7 +2191,7 @@
       <c r="H77" s="16"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="47"/>
       <c r="B78" s="22" t="s">
         <v>18</v>
@@ -2195,7 +2206,7 @@
       <c r="H78" s="16"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="47"/>
       <c r="B79" s="22" t="s">
         <v>9</v>
@@ -2210,7 +2221,7 @@
       <c r="H79" s="16"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="50"/>
       <c r="B80" s="23" t="s">
         <v>10</v>
@@ -2225,7 +2236,7 @@
       <c r="H80" s="18"/>
       <c r="I80" s="19"/>
     </row>
-    <row r="81" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="49">
         <v>12</v>
       </c>
@@ -2242,7 +2253,7 @@
       <c r="H81" s="20"/>
       <c r="I81" s="21"/>
     </row>
-    <row r="82" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="47"/>
       <c r="B82" s="22" t="s">
         <v>6</v>
@@ -2257,7 +2268,7 @@
       <c r="H82" s="16"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="47"/>
       <c r="B83" s="22" t="s">
         <v>7</v>
@@ -2272,7 +2283,7 @@
       <c r="H83" s="16"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="47"/>
       <c r="B84" s="22" t="s">
         <v>8</v>
@@ -2287,7 +2298,7 @@
       <c r="H84" s="16"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="47"/>
       <c r="B85" s="22" t="s">
         <v>18</v>
@@ -2302,7 +2313,7 @@
       <c r="H85" s="16"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="47"/>
       <c r="B86" s="22" t="s">
         <v>9</v>
@@ -2317,7 +2328,7 @@
       <c r="H86" s="16"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="50"/>
       <c r="B87" s="23" t="s">
         <v>10</v>
@@ -2332,7 +2343,7 @@
       <c r="H87" s="18"/>
       <c r="I87" s="19"/>
     </row>
-    <row r="88" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="46">
         <v>13</v>
       </c>
@@ -2349,7 +2360,7 @@
       <c r="H88" s="16"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="47"/>
       <c r="B89" s="22" t="s">
         <v>6</v>
@@ -2364,7 +2375,7 @@
       <c r="H89" s="16"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="47"/>
       <c r="B90" s="22" t="s">
         <v>7</v>
@@ -2379,7 +2390,7 @@
       <c r="H90" s="16"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="47"/>
       <c r="B91" s="22" t="s">
         <v>8</v>
@@ -2394,7 +2405,7 @@
       <c r="H91" s="16"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="47"/>
       <c r="B92" s="22" t="s">
         <v>18</v>
@@ -2409,7 +2420,7 @@
       <c r="H92" s="16"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="47"/>
       <c r="B93" s="22" t="s">
         <v>9</v>
@@ -2424,7 +2435,7 @@
       <c r="H93" s="16"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="48"/>
       <c r="B94" s="26" t="s">
         <v>10</v>
@@ -2439,7 +2450,7 @@
       <c r="H94" s="31"/>
       <c r="I94" s="32"/>
     </row>
-    <row r="95" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>11</v>
       </c>
@@ -2447,7 +2458,7 @@
       <c r="C95" s="2"/>
       <c r="D95" s="2">
         <f t="shared" ref="D95:I95" si="0">SUM(D4:D94)</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E95" s="2">
         <f t="shared" si="0"/>
@@ -2470,7 +2481,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
         <v>19</v>
       </c>
@@ -2478,7 +2489,7 @@
       <c r="C96" s="4"/>
       <c r="D96" s="4">
         <f>D95/13</f>
-        <v>2.6923076923076925</v>
+        <v>3.1538461538461537</v>
       </c>
       <c r="E96" s="4">
         <f t="shared" ref="E96:I96" si="1">E95/13</f>

--- a/Hours Log.xlsx
+++ b/Hours Log.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barlc_000\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bardzovski\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13404" windowHeight="8436"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9698" windowHeight="4170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -845,16 +845,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="14.46484375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -897,7 +897,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -921,7 +921,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="46">
         <v>1</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="47"/>
       <c r="B5" s="22" t="s">
         <v>6</v>
@@ -965,7 +965,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="47"/>
       <c r="B6" s="22" t="s">
         <v>7</v>
@@ -982,7 +982,7 @@
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="47"/>
       <c r="B7" s="22" t="s">
         <v>8</v>
@@ -997,7 +997,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="47"/>
       <c r="B8" s="22" t="s">
         <v>18</v>
@@ -1024,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="47"/>
       <c r="B9" s="22" t="s">
         <v>9</v>
@@ -1039,7 +1039,7 @@
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50"/>
       <c r="B10" s="23" t="s">
         <v>10</v>
@@ -1054,7 +1054,7 @@
       <c r="H10" s="38"/>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="49">
         <v>2</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="H11" s="41"/>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="47"/>
       <c r="B12" s="22" t="s">
         <v>6</v>
@@ -1098,7 +1098,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="47"/>
       <c r="B13" s="22" t="s">
         <v>7</v>
@@ -1113,7 +1113,7 @@
       <c r="H13" s="35"/>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="47"/>
       <c r="B14" s="22" t="s">
         <v>8</v>
@@ -1128,7 +1128,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="47"/>
       <c r="B15" s="22" t="s">
         <v>18</v>
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="47"/>
       <c r="B16" s="22" t="s">
         <v>9</v>
@@ -1172,7 +1172,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="50"/>
       <c r="B17" s="23" t="s">
         <v>10</v>
@@ -1189,7 +1189,7 @@
       <c r="H17" s="38"/>
       <c r="I17" s="39"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="49">
         <v>3</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="H18" s="35"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="47"/>
       <c r="B19" s="22" t="s">
         <v>6</v>
@@ -1233,7 +1233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="47"/>
       <c r="B20" s="22" t="s">
         <v>7</v>
@@ -1248,7 +1248,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="47"/>
       <c r="B21" s="22" t="s">
         <v>8</v>
@@ -1263,7 +1263,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="47"/>
       <c r="B22" s="22" t="s">
         <v>18</v>
@@ -1290,7 +1290,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="47"/>
       <c r="B23" s="22" t="s">
         <v>9</v>
@@ -1305,7 +1305,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="50"/>
       <c r="B24" s="23" t="s">
         <v>10</v>
@@ -1324,7 +1324,7 @@
       <c r="H24" s="18"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="49">
         <v>4</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="47"/>
       <c r="B26" s="22" t="s">
         <v>6</v>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="47"/>
       <c r="B27" s="22" t="s">
         <v>7</v>
@@ -1391,7 +1391,7 @@
       <c r="H27" s="16"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="47"/>
       <c r="B28" s="22" t="s">
         <v>8</v>
@@ -1414,7 +1414,7 @@
       <c r="H28" s="16"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="47"/>
       <c r="B29" s="22" t="s">
         <v>18</v>
@@ -1441,7 +1441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="47"/>
       <c r="B30" s="22" t="s">
         <v>9</v>
@@ -1458,7 +1458,7 @@
       <c r="H30" s="16"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A31" s="50"/>
       <c r="B31" s="23" t="s">
         <v>10</v>
@@ -1477,7 +1477,7 @@
       <c r="H31" s="18"/>
       <c r="I31" s="19"/>
     </row>
-    <row r="32" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="49">
         <v>5</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="47"/>
       <c r="B33" s="22" t="s">
         <v>6</v>
@@ -1511,13 +1511,17 @@
       <c r="D33" s="28">
         <v>3</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="E33" s="16">
+        <v>2</v>
+      </c>
+      <c r="F33" s="16">
+        <v>2</v>
+      </c>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="47"/>
       <c r="B34" s="22" t="s">
         <v>7</v>
@@ -1532,7 +1536,7 @@
       <c r="H34" s="16"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="47"/>
       <c r="B35" s="22" t="s">
         <v>8</v>
@@ -1549,7 +1553,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="47"/>
       <c r="B36" s="22" t="s">
         <v>18</v>
@@ -1564,7 +1568,7 @@
       <c r="H36" s="16"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="47"/>
       <c r="B37" s="22" t="s">
         <v>9</v>
@@ -1579,7 +1583,7 @@
       <c r="H37" s="16"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A38" s="50"/>
       <c r="B38" s="23" t="s">
         <v>10</v>
@@ -1594,7 +1598,7 @@
       <c r="H38" s="18"/>
       <c r="I38" s="19"/>
     </row>
-    <row r="39" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="49">
         <v>6</v>
       </c>
@@ -1611,7 +1615,7 @@
       <c r="H39" s="20"/>
       <c r="I39" s="21"/>
     </row>
-    <row r="40" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="47"/>
       <c r="B40" s="22" t="s">
         <v>6</v>
@@ -1626,7 +1630,7 @@
       <c r="H40" s="16"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="47"/>
       <c r="B41" s="22" t="s">
         <v>7</v>
@@ -1641,7 +1645,7 @@
       <c r="H41" s="16"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="47"/>
       <c r="B42" s="22" t="s">
         <v>8</v>
@@ -1656,7 +1660,7 @@
       <c r="H42" s="16"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="47"/>
       <c r="B43" s="22" t="s">
         <v>18</v>
@@ -1671,7 +1675,7 @@
       <c r="H43" s="16"/>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="47"/>
       <c r="B44" s="22" t="s">
         <v>9</v>
@@ -1686,7 +1690,7 @@
       <c r="H44" s="16"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A45" s="50"/>
       <c r="B45" s="23" t="s">
         <v>10</v>
@@ -1701,7 +1705,7 @@
       <c r="H45" s="18"/>
       <c r="I45" s="19"/>
     </row>
-    <row r="46" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="49">
         <v>7</v>
       </c>
@@ -1712,13 +1716,17 @@
         <v>42835</v>
       </c>
       <c r="D46" s="27"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="E46" s="20">
+        <v>8</v>
+      </c>
+      <c r="F46" s="20">
+        <v>8</v>
+      </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="47"/>
       <c r="B47" s="22" t="s">
         <v>6</v>
@@ -1727,13 +1735,17 @@
         <v>42836</v>
       </c>
       <c r="D47" s="28"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="E47" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="F47" s="16">
+        <v>6.5</v>
+      </c>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="47"/>
       <c r="B48" s="22" t="s">
         <v>7</v>
@@ -1742,13 +1754,17 @@
         <v>42837</v>
       </c>
       <c r="D48" s="28"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
+      <c r="E48" s="16">
+        <v>14</v>
+      </c>
+      <c r="F48" s="16">
+        <v>15</v>
+      </c>
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="47"/>
       <c r="B49" s="22" t="s">
         <v>8</v>
@@ -1763,7 +1779,7 @@
       <c r="H49" s="16"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="47"/>
       <c r="B50" s="22" t="s">
         <v>18</v>
@@ -1778,7 +1794,7 @@
       <c r="H50" s="16"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="47"/>
       <c r="B51" s="22" t="s">
         <v>9</v>
@@ -1793,7 +1809,7 @@
       <c r="H51" s="16"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A52" s="50"/>
       <c r="B52" s="23" t="s">
         <v>10</v>
@@ -1808,7 +1824,7 @@
       <c r="H52" s="18"/>
       <c r="I52" s="19"/>
     </row>
-    <row r="53" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="49">
         <v>8</v>
       </c>
@@ -1825,7 +1841,7 @@
       <c r="H53" s="20"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="47"/>
       <c r="B54" s="22" t="s">
         <v>6</v>
@@ -1840,7 +1856,7 @@
       <c r="H54" s="16"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="47"/>
       <c r="B55" s="22" t="s">
         <v>7</v>
@@ -1855,7 +1871,7 @@
       <c r="H55" s="16"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="47"/>
       <c r="B56" s="22" t="s">
         <v>8</v>
@@ -1870,7 +1886,7 @@
       <c r="H56" s="16"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="47"/>
       <c r="B57" s="22" t="s">
         <v>18</v>
@@ -1885,7 +1901,7 @@
       <c r="H57" s="16"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="47"/>
       <c r="B58" s="22" t="s">
         <v>9</v>
@@ -1900,7 +1916,7 @@
       <c r="H58" s="16"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A59" s="50"/>
       <c r="B59" s="23" t="s">
         <v>10</v>
@@ -1915,7 +1931,7 @@
       <c r="H59" s="18"/>
       <c r="I59" s="19"/>
     </row>
-    <row r="60" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="49">
         <v>9</v>
       </c>
@@ -1932,7 +1948,7 @@
       <c r="H60" s="20"/>
       <c r="I60" s="21"/>
     </row>
-    <row r="61" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="47"/>
       <c r="B61" s="22" t="s">
         <v>6</v>
@@ -1947,7 +1963,7 @@
       <c r="H61" s="16"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="47"/>
       <c r="B62" s="22" t="s">
         <v>7</v>
@@ -1962,7 +1978,7 @@
       <c r="H62" s="16"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="47"/>
       <c r="B63" s="22" t="s">
         <v>8</v>
@@ -1977,7 +1993,7 @@
       <c r="H63" s="16"/>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="47"/>
       <c r="B64" s="22" t="s">
         <v>18</v>
@@ -1992,7 +2008,7 @@
       <c r="H64" s="16"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="47"/>
       <c r="B65" s="22" t="s">
         <v>9</v>
@@ -2007,7 +2023,7 @@
       <c r="H65" s="16"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A66" s="50"/>
       <c r="B66" s="23" t="s">
         <v>10</v>
@@ -2022,7 +2038,7 @@
       <c r="H66" s="18"/>
       <c r="I66" s="19"/>
     </row>
-    <row r="67" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="49">
         <v>10</v>
       </c>
@@ -2039,7 +2055,7 @@
       <c r="H67" s="20"/>
       <c r="I67" s="21"/>
     </row>
-    <row r="68" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="47"/>
       <c r="B68" s="22" t="s">
         <v>6</v>
@@ -2054,7 +2070,7 @@
       <c r="H68" s="16"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="47"/>
       <c r="B69" s="22" t="s">
         <v>7</v>
@@ -2069,7 +2085,7 @@
       <c r="H69" s="16"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="47"/>
       <c r="B70" s="22" t="s">
         <v>8</v>
@@ -2084,7 +2100,7 @@
       <c r="H70" s="16"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="47"/>
       <c r="B71" s="22" t="s">
         <v>18</v>
@@ -2099,7 +2115,7 @@
       <c r="H71" s="16"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="47"/>
       <c r="B72" s="22" t="s">
         <v>9</v>
@@ -2114,7 +2130,7 @@
       <c r="H72" s="16"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A73" s="50"/>
       <c r="B73" s="23" t="s">
         <v>10</v>
@@ -2129,7 +2145,7 @@
       <c r="H73" s="18"/>
       <c r="I73" s="19"/>
     </row>
-    <row r="74" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="49">
         <v>11</v>
       </c>
@@ -2146,7 +2162,7 @@
       <c r="H74" s="20"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="47"/>
       <c r="B75" s="22" t="s">
         <v>6</v>
@@ -2161,7 +2177,7 @@
       <c r="H75" s="16"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="47"/>
       <c r="B76" s="22" t="s">
         <v>7</v>
@@ -2176,7 +2192,7 @@
       <c r="H76" s="16"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="47"/>
       <c r="B77" s="22" t="s">
         <v>8</v>
@@ -2191,7 +2207,7 @@
       <c r="H77" s="16"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="47"/>
       <c r="B78" s="22" t="s">
         <v>18</v>
@@ -2206,7 +2222,7 @@
       <c r="H78" s="16"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="47"/>
       <c r="B79" s="22" t="s">
         <v>9</v>
@@ -2221,7 +2237,7 @@
       <c r="H79" s="16"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A80" s="50"/>
       <c r="B80" s="23" t="s">
         <v>10</v>
@@ -2236,7 +2252,7 @@
       <c r="H80" s="18"/>
       <c r="I80" s="19"/>
     </row>
-    <row r="81" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="49">
         <v>12</v>
       </c>
@@ -2253,7 +2269,7 @@
       <c r="H81" s="20"/>
       <c r="I81" s="21"/>
     </row>
-    <row r="82" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="47"/>
       <c r="B82" s="22" t="s">
         <v>6</v>
@@ -2268,7 +2284,7 @@
       <c r="H82" s="16"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="47"/>
       <c r="B83" s="22" t="s">
         <v>7</v>
@@ -2283,7 +2299,7 @@
       <c r="H83" s="16"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="47"/>
       <c r="B84" s="22" t="s">
         <v>8</v>
@@ -2298,7 +2314,7 @@
       <c r="H84" s="16"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="47"/>
       <c r="B85" s="22" t="s">
         <v>18</v>
@@ -2313,7 +2329,7 @@
       <c r="H85" s="16"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="47"/>
       <c r="B86" s="22" t="s">
         <v>9</v>
@@ -2328,7 +2344,7 @@
       <c r="H86" s="16"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A87" s="50"/>
       <c r="B87" s="23" t="s">
         <v>10</v>
@@ -2343,7 +2359,7 @@
       <c r="H87" s="18"/>
       <c r="I87" s="19"/>
     </row>
-    <row r="88" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="46">
         <v>13</v>
       </c>
@@ -2360,7 +2376,7 @@
       <c r="H88" s="16"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="47"/>
       <c r="B89" s="22" t="s">
         <v>6</v>
@@ -2375,7 +2391,7 @@
       <c r="H89" s="16"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="47"/>
       <c r="B90" s="22" t="s">
         <v>7</v>
@@ -2390,7 +2406,7 @@
       <c r="H90" s="16"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="47"/>
       <c r="B91" s="22" t="s">
         <v>8</v>
@@ -2405,7 +2421,7 @@
       <c r="H91" s="16"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="47"/>
       <c r="B92" s="22" t="s">
         <v>18</v>
@@ -2420,7 +2436,7 @@
       <c r="H92" s="16"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="47"/>
       <c r="B93" s="22" t="s">
         <v>9</v>
@@ -2435,7 +2451,7 @@
       <c r="H93" s="16"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="48"/>
       <c r="B94" s="26" t="s">
         <v>10</v>
@@ -2450,7 +2466,7 @@
       <c r="H94" s="31"/>
       <c r="I94" s="32"/>
     </row>
-    <row r="95" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A95" s="9" t="s">
         <v>11</v>
       </c>
@@ -2462,11 +2478,11 @@
       </c>
       <c r="E95" s="2">
         <f t="shared" si="0"/>
-        <v>30.5</v>
+        <v>61</v>
       </c>
       <c r="F95" s="2">
         <f t="shared" si="0"/>
-        <v>28.5</v>
+        <v>60</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" si="0"/>
@@ -2481,7 +2497,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="11" t="s">
         <v>19</v>
       </c>
@@ -2493,11 +2509,11 @@
       </c>
       <c r="E96" s="4">
         <f t="shared" ref="E96:I96" si="1">E95/13</f>
-        <v>2.3461538461538463</v>
+        <v>4.6923076923076925</v>
       </c>
       <c r="F96" s="4">
         <f t="shared" si="1"/>
-        <v>2.1923076923076925</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="G96" s="4">
         <f t="shared" si="1"/>
